--- a/Protokol MT310 definition.xlsx
+++ b/Protokol MT310 definition.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\AVSpekter\SOFTWARE Projekti\MT-300-TFA_SOFTWARE\MT-300-TFA_SVN.git\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="685" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="UKAZI S STRANI PROCESORSKE" sheetId="1" r:id="rId1"/>
@@ -22,12 +27,12 @@
     <sheet name="HV-ADAPTER" sheetId="9" r:id="rId13"/>
     <sheet name="MT-300-TFA" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="624">
   <si>
     <t>Command from MT310 to MERILNA PCB, MT-300-TFA, HV ADAPTER</t>
   </si>
@@ -1777,27 +1782,15 @@
     <t>Phase system</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:INIT:(1.):1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>1. Cable type: "1_P" or "3_P"</t>
   </si>
   <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:INITIATED::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>init CORD test, runs mains test and return its result</t>
   </si>
   <si>
     <t>Position of L conductor</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:START_C_W:(1.):1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:CW_STARTED::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>CW failures</t>
   </si>
   <si>
@@ -1903,165 +1896,75 @@
     <t>PE_OPEN</t>
   </si>
   <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:CW,(1)::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>1. CW failures</t>
   </si>
   <si>
     <t>Mains status</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:START_CONT::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:CONT_STARTED::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>Riso one phase to PE fault</t>
   </si>
   <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:CONT|(1),(2)|(3)::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>1. Pass, 2. Measured wire, 3. Value in ohms %.3f</t>
   </si>
   <si>
     <t>Riso phase to phase fault</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:START_ALL-PE::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:ALL-PE_STARTED::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>Measured wire</t>
   </si>
   <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:RISO_ALL-PE|(1)::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>1. Pass</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:START_ONE-PE::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:ONE-PE_STARTED::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>URES Phase voltage to measure</t>
   </si>
   <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:RISO_ONE-PE|(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>1. Pass, 2. Riso one phase to PE fault-s</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:START_PH_PH::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:PH-PH_STARTED::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:RISO_PH-PH|(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>1. Pass, 2. Riso phase to phase fault-s</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:STOP::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:31:MT-300-TFA:CORD:STOPPED::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>stop CORD meaurement</t>
   </si>
   <si>
     <t>INTERMEDIATE COMMANDS</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:RPE_L_STARTED::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:RPE_L_START::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>Start RPE low current measurement</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:RPE_H_STARTED::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:RPE_H_START::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>Start RPE high current measurement</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:RPE_RES|(1.)::1:CRC:</t>
-  </si>
-  <si>
     <t>1. RPE in ohms %.2f</t>
   </si>
   <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:RPE_RES_GET:(1):1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>1. Measured connection et.: "L1_L2"</t>
   </si>
   <si>
     <t xml:space="preserve">Request RPE resistance. Parameter (1) just for info and simulation. </t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:RPE_STOPPED::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:RPE_STOP::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>Stop RPE measurement</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:RISO_STARTED::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:RISO_START::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>Start RPE measurement</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:RISO_RES|(1.)::1:CRC:</t>
-  </si>
-  <si>
     <t>1. RISO in Mohms %.3f</t>
   </si>
   <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:RISO_RES_GET:(1):1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>Request RPE resistance. Parameter (1) just for info and simulation.</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:CORD:RISO_STOPPED::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:CORD:RISO_STOP::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>Stop RISO measurement</t>
   </si>
   <si>
-    <t>&gt;AP:03:MT-300-TFA:STATUS:PHASE_S|(1.),L_POS|(2.),MAINS|(3.):MAINS_STAT</t>
-  </si>
-  <si>
     <t>1. Phase system, 2. Position of L conductor, 3. Mains status</t>
   </si>
   <si>
@@ -2071,67 +1974,19 @@
     <t>MACHINES</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:MACH:INIT:(1.):1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:MACH:INITIATED::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>init MACH test, runs mains test and return its result</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:MACH:START_RPE::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:MACH:RPE_STARTED::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>start RPE 30A MACH measurement, when return command is transmitted everithing is set</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:MACH:STOP_RPE::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:MACH:RPE_STOPPED::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>stop RPE 30A MACH measurement</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MT-300-TFA:MACH:START_ALL-PE::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:MACH:ALL-PE_STARTED::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:MACH:RISO_ALL-PE|(1)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MT-300-TFA:MACH:START_ONE-PE::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:MACH:ONE-PE_STARTED::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:MACH:RISO_ONE-PE|(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MT-300-TFA:MACH:START_URES:(1.):1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>1. URES Phase voltage to measure</t>
   </si>
   <si>
-    <t>&gt;AP:ID:MT-300-TFA:MACH:URES_STARTED::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>start dedicated URES measurement, when started is returned all is set</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MT-300-TFA:MACH:URES_OPEN::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MT-300-TFA:MACH:URES_OPENED::1:CRC:#013#010</t>
   </si>
   <si>
     <t>open input contactors at peak input voltage. Return when the contactors are opened.</t>
@@ -2632,6 +2487,162 @@
       </rPr>
       <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
     </r>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:INIT:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:START_C_W:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:START_CONT:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:START_ALL-PE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:START_ONE-PE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:START_PH_PH:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:STOP:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RPE_L_STARTED:::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RPE_H_STARTED:::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RPE_RES|(1.):::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RPE_STOPPED:::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RISO_STARTED:::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RISO_STOPPED:::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RISO_RES|(1.):::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:INIT:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:START_RPE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:STOP_RPE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:START_ALL-PE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:START_ONE-PE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:START_URES:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:URES_OPEN:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:INITIATED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:CW_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:CW,(1):::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:CONT_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:CONT|(1),(2)|(3):::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:ALL-PE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_ALL-PE|(1):::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:ONE-PE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_ONE-PE|(1),(2):::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:PH-PH_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_PH-PH|(1),(2):::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:31:CORD:STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RPE_L_START:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RPE_H_START:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RPE_STOP:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_START:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_RES_GET::(1):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RPE_RES_GET::(1):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_STOP:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:03:STATUS:PHASE_S|(1.),L_POS|(2.),MAINS|(3.):MAINS_STAT</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:INITIATED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:RPE_STARTED::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:URES_OPENED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:URES_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:RISO_ONE-PE|(1),(2):::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:ONE-PE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:RISO_ALL-PE|(1):::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:ALL-PE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:RPE_STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:RPE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:INITIATED:::1:CRC:#013#010</t>
   </si>
 </sst>
 </file>
@@ -3134,15 +3145,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3165,6 +3167,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3182,10 +3193,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Navadno 2" xfId="2"/>
     <cellStyle name="Navadno 3" xfId="3"/>
-    <cellStyle name="Pojasnjevalno besedilo" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3261,14 +3272,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3306,9 +3320,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3343,7 +3357,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3378,7 +3392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3859,21 +3873,21 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
@@ -4015,76 +4029,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="75" t="s">
         <v>406</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="75" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4154,58 +4168,58 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="75" t="s">
         <v>372</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="75" t="s">
         <v>373</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="75" t="s">
         <v>376</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4301,6 +4315,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
@@ -4309,12 +4329,6 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4334,58 +4348,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="75" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4467,40 +4481,40 @@
       <c r="E18" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="75" t="s">
         <v>391</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="75" t="s">
         <v>392</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="75" t="s">
         <v>393</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4600,58 +4614,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="75" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4787,40 +4801,40 @@
       <c r="E29" s="33"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="75" t="s">
         <v>399</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="75" t="s">
         <v>400</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="75" t="s">
         <v>401</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5100,86 +5114,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="75" t="s">
         <v>430</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>433</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="61" t="s">
         <v>115</v>
       </c>
       <c r="B9" s="33"/>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="62" t="s">
         <v>271</v>
       </c>
       <c r="D9" s="33"/>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="63" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="33"/>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="63" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="33"/>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="63" t="s">
         <v>377</v>
       </c>
       <c r="J9" s="33"/>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="63" t="s">
         <v>434</v>
       </c>
       <c r="L9" s="33"/>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="63" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5233,49 +5247,49 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="63" t="s">
+      <c r="A48" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="75" t="s">
         <v>440</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="75" t="s">
         <v>441</v>
       </c>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="75" t="s">
         <v>443</v>
       </c>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="61" t="s">
+      <c r="A53" s="75" t="s">
         <v>442</v>
       </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5429,17 +5443,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="A53:E53"/>
     <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5449,8 +5463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AO61"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5459,23 +5473,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="67" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="67" t="s">
         <v>445</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="67" t="s">
         <v>447</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="70" t="s">
+      <c r="F1" s="64"/>
+      <c r="G1" s="67" t="s">
         <v>448</v>
       </c>
       <c r="H1" s="79" t="s">
@@ -5486,34 +5500,34 @@
       <c r="K1" s="79"/>
       <c r="L1" s="79"/>
       <c r="M1" s="79"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
     </row>
     <row r="2" spans="1:41" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
@@ -5523,42 +5537,42 @@
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
@@ -5568,1035 +5582,1035 @@
       <c r="C3" s="78"/>
       <c r="D3" s="78"/>
       <c r="E3" s="78"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>572</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>530</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>573</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>594</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="K6" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="L6" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="N6" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="O6" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="P6" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="S6" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="T6" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="U6" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="V6" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="W6" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="X6" s="64" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y6" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z6" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA6" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB6" s="64" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC6" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD6" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE6" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="AF6" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG6" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="AH6" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="AI6" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="AJ6" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="AK6" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="AL6" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="AM6" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="AN6" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="AO6" s="64" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="71"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="73" t="s">
+        <v>595</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>535</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>537</v>
+      </c>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+    </row>
+    <row r="8" spans="1:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="66" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" s="68"/>
+      <c r="C8" s="73" t="s">
+        <v>596</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64" t="s">
+        <v>538</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>541</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>542</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+    </row>
+    <row r="9" spans="1:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="71"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="73" t="s">
+        <v>597</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>543</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64" t="s">
+        <v>495</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>545</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>546</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>548</v>
+      </c>
+      <c r="M9" s="64" t="s">
+        <v>549</v>
+      </c>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="66" t="s">
+        <v>575</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="73" t="s">
+        <v>598</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64" t="s">
+        <v>550</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64" t="s">
+        <v>496</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>552</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="L10" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="73" t="s">
+        <v>599</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64" t="s">
+        <v>498</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>556</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="66" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="73" t="s">
+        <v>600</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64" t="s">
+        <v>558</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64" t="s">
+        <v>499</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>559</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>560</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="K12" s="64" t="s">
+        <v>562</v>
+      </c>
+      <c r="L12" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="M12" s="64" t="s">
+        <v>564</v>
+      </c>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="73" t="s">
+        <v>601</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>500</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
+        <v>577</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="73" t="s">
+        <v>602</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="73" t="s">
+        <v>603</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>501</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="66" t="s">
         <v>578</v>
       </c>
-      <c r="I4" s="67" t="s">
-        <v>579</v>
-      </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>453</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>454</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>455</v>
-      </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67" t="s">
-        <v>456</v>
-      </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67" t="s">
-        <v>457</v>
-      </c>
-      <c r="H5" s="67" t="s">
-        <v>580</v>
-      </c>
-      <c r="I5" s="67" t="s">
-        <v>581</v>
-      </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
-        <v>458</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>454</v>
-      </c>
-      <c r="C6" s="76" t="s">
-        <v>459</v>
-      </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67" t="s">
-        <v>582</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67" t="s">
-        <v>460</v>
-      </c>
-      <c r="H6" s="67" t="s">
-        <v>461</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>462</v>
-      </c>
-      <c r="J6" s="67" t="s">
-        <v>463</v>
-      </c>
-      <c r="K6" s="67" t="s">
-        <v>464</v>
-      </c>
-      <c r="L6" s="67" t="s">
-        <v>465</v>
-      </c>
-      <c r="M6" s="67" t="s">
-        <v>466</v>
-      </c>
-      <c r="N6" s="67" t="s">
-        <v>467</v>
-      </c>
-      <c r="O6" s="67" t="s">
-        <v>468</v>
-      </c>
-      <c r="P6" s="67" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q6" s="67" t="s">
-        <v>470</v>
-      </c>
-      <c r="R6" s="67" t="s">
-        <v>471</v>
-      </c>
-      <c r="S6" s="67" t="s">
-        <v>472</v>
-      </c>
-      <c r="T6" s="67" t="s">
-        <v>473</v>
-      </c>
-      <c r="U6" s="67" t="s">
-        <v>474</v>
-      </c>
-      <c r="V6" s="67" t="s">
-        <v>475</v>
-      </c>
-      <c r="W6" s="67" t="s">
-        <v>476</v>
-      </c>
-      <c r="X6" s="67" t="s">
-        <v>477</v>
-      </c>
-      <c r="Y6" s="67" t="s">
-        <v>478</v>
-      </c>
-      <c r="Z6" s="67" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA6" s="67" t="s">
-        <v>480</v>
-      </c>
-      <c r="AB6" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="AC6" s="67" t="s">
-        <v>482</v>
-      </c>
-      <c r="AD6" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="AE6" s="67" t="s">
-        <v>484</v>
-      </c>
-      <c r="AF6" s="67" t="s">
-        <v>485</v>
-      </c>
-      <c r="AG6" s="67" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH6" s="67" t="s">
-        <v>487</v>
-      </c>
-      <c r="AI6" s="67" t="s">
-        <v>488</v>
-      </c>
-      <c r="AJ6" s="67" t="s">
-        <v>489</v>
-      </c>
-      <c r="AK6" s="67" t="s">
-        <v>490</v>
-      </c>
-      <c r="AL6" s="67" t="s">
-        <v>491</v>
-      </c>
-      <c r="AM6" s="67" t="s">
-        <v>492</v>
-      </c>
-      <c r="AN6" s="67" t="s">
-        <v>493</v>
-      </c>
-      <c r="AO6" s="67" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="76" t="s">
-        <v>495</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>496</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>583</v>
-      </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67" t="s">
-        <v>497</v>
-      </c>
-      <c r="H7" s="67" t="s">
-        <v>584</v>
-      </c>
-      <c r="I7" s="67" t="s">
-        <v>585</v>
-      </c>
-      <c r="J7" s="67" t="s">
-        <v>586</v>
-      </c>
-      <c r="K7" s="67" t="s">
-        <v>587</v>
-      </c>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-    </row>
-    <row r="8" spans="1:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
-        <v>498</v>
-      </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="76" t="s">
-        <v>499</v>
-      </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67" t="s">
-        <v>588</v>
-      </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67" t="s">
-        <v>500</v>
-      </c>
-      <c r="H8" s="67" t="s">
-        <v>589</v>
-      </c>
-      <c r="I8" s="67" t="s">
-        <v>590</v>
-      </c>
-      <c r="J8" s="67" t="s">
-        <v>591</v>
-      </c>
-      <c r="K8" s="67" t="s">
-        <v>592</v>
-      </c>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-    </row>
-    <row r="9" spans="1:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="A9" s="74"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="76" t="s">
-        <v>501</v>
-      </c>
-      <c r="D9" s="67" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="73" t="s">
+        <v>604</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="E9" s="67" t="s">
-        <v>593</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67" t="s">
-        <v>503</v>
-      </c>
-      <c r="H9" s="67" t="s">
-        <v>594</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>595</v>
-      </c>
-      <c r="J9" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="K9" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="L9" s="67" t="s">
-        <v>598</v>
-      </c>
-      <c r="M9" s="67" t="s">
-        <v>599</v>
-      </c>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
-        <v>504</v>
-      </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="76" t="s">
-        <v>505</v>
-      </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67" t="s">
-        <v>600</v>
-      </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67" t="s">
-        <v>506</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>601</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>602</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>603</v>
-      </c>
-      <c r="K10" s="67" t="s">
-        <v>581</v>
-      </c>
-      <c r="L10" s="67" t="s">
-        <v>604</v>
-      </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="67"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="67"/>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="67"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="67"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="76" t="s">
-        <v>507</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>508</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>605</v>
-      </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67" t="s">
-        <v>509</v>
-      </c>
-      <c r="H11" s="67" t="s">
-        <v>606</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>607</v>
-      </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="67"/>
-      <c r="AK11" s="67"/>
-      <c r="AL11" s="67"/>
-      <c r="AM11" s="67"/>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="67"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
-        <v>510</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="76" t="s">
-        <v>511</v>
-      </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67" t="s">
-        <v>608</v>
-      </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67" t="s">
-        <v>512</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>609</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>610</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>611</v>
-      </c>
-      <c r="K12" s="67" t="s">
-        <v>612</v>
-      </c>
-      <c r="L12" s="67" t="s">
-        <v>613</v>
-      </c>
-      <c r="M12" s="67" t="s">
-        <v>614</v>
-      </c>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="67"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="76" t="s">
-        <v>513</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>514</v>
-      </c>
-      <c r="E13" s="67" t="s">
-        <v>615</v>
-      </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
-        <v>515</v>
-      </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="76" t="s">
-        <v>516</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67" t="s">
-        <v>616</v>
-      </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="76" t="s">
-        <v>517</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>518</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>617</v>
-      </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="67"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>519</v>
-      </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="76" t="s">
-        <v>520</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67" t="s">
-        <v>521</v>
-      </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="67"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="67"/>
-      <c r="Z16" s="67"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="67"/>
-      <c r="AI16" s="67"/>
-      <c r="AJ16" s="67"/>
-      <c r="AK16" s="67"/>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="67"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="64"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="64"/>
+      <c r="AM16" s="64"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="64"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="B17" s="82"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
       <c r="E17" s="82"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
-        <v>523</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="77" t="s">
-        <v>524</v>
-      </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67" t="s">
-        <v>525</v>
-      </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
+      <c r="A18" s="65" t="s">
+        <v>579</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="74" t="s">
+        <v>605</v>
+      </c>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64" t="s">
+        <v>504</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
-        <v>526</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="77" t="s">
-        <v>527</v>
-      </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67" t="s">
-        <v>528</v>
-      </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
+      <c r="A19" s="65" t="s">
+        <v>580</v>
+      </c>
+      <c r="B19" s="64"/>
+      <c r="C19" s="74" t="s">
+        <v>606</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
-        <v>529</v>
-      </c>
-      <c r="B20" s="67" t="s">
-        <v>530</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>531</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>532</v>
-      </c>
-      <c r="E20" s="67" t="s">
-        <v>533</v>
-      </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
+      <c r="A20" s="65" t="s">
+        <v>581</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>506</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>610</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
-        <v>534</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="77" t="s">
-        <v>535</v>
-      </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="67" t="s">
-        <v>536</v>
-      </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
+      <c r="A21" s="65" t="s">
+        <v>582</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="74" t="s">
+        <v>607</v>
+      </c>
+      <c r="D21" s="71"/>
+      <c r="E21" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
-        <v>537</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="77" t="s">
-        <v>538</v>
-      </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="67" t="s">
-        <v>539</v>
-      </c>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
+      <c r="A22" s="65" t="s">
+        <v>583</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="74" t="s">
+        <v>608</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="64" t="s">
+        <v>510</v>
+      </c>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
-        <v>540</v>
-      </c>
-      <c r="B23" s="67" t="s">
-        <v>541</v>
-      </c>
-      <c r="C23" s="77" t="s">
-        <v>542</v>
-      </c>
-      <c r="D23" s="74" t="s">
-        <v>532</v>
-      </c>
-      <c r="E23" s="67" t="s">
-        <v>543</v>
-      </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
+      <c r="A23" s="65" t="s">
+        <v>585</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>609</v>
+      </c>
+      <c r="D23" s="71" t="s">
+        <v>507</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
-        <v>544</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="77" t="s">
-        <v>545</v>
-      </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67" t="s">
-        <v>546</v>
-      </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
+      <c r="A24" s="65" t="s">
+        <v>584</v>
+      </c>
+      <c r="B24" s="64"/>
+      <c r="C24" s="74" t="s">
+        <v>611</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64" t="s">
+        <v>513</v>
+      </c>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67" t="s">
-        <v>547</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>548</v>
-      </c>
-      <c r="E26" s="67" t="s">
-        <v>549</v>
-      </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64" t="s">
+        <v>612</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>514</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
     </row>
     <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
       <c r="D28" s="80"/>
       <c r="E28" s="80"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="78" t="s">
@@ -6606,195 +6620,195 @@
       <c r="C29" s="78"/>
       <c r="D29" s="78"/>
       <c r="E29" s="78"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
-        <v>551</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>454</v>
-      </c>
-      <c r="C31" s="76" t="s">
-        <v>552</v>
-      </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67" t="s">
-        <v>553</v>
-      </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
+      <c r="A31" s="66" t="s">
+        <v>586</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64" t="s">
+        <v>517</v>
+      </c>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="B32" s="67"/>
-      <c r="C32" s="76" t="s">
-        <v>555</v>
-      </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67" t="s">
-        <v>556</v>
-      </c>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
+      <c r="A32" s="66" t="s">
+        <v>587</v>
+      </c>
+      <c r="B32" s="64"/>
+      <c r="C32" s="73" t="s">
+        <v>622</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
-        <v>557</v>
-      </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="76" t="s">
-        <v>558</v>
-      </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67" t="s">
-        <v>559</v>
+      <c r="A33" s="66" t="s">
+        <v>588</v>
+      </c>
+      <c r="B33" s="64"/>
+      <c r="C33" s="73" t="s">
+        <v>621</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
-        <v>560</v>
-      </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="76" t="s">
-        <v>561</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67" t="s">
+      <c r="A34" s="66" t="s">
+        <v>589</v>
+      </c>
+      <c r="B34" s="64"/>
+      <c r="C34" s="73" t="s">
+        <v>620</v>
+      </c>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="73" t="s">
+        <v>619</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="E35" s="64" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="66" t="s">
+        <v>590</v>
+      </c>
+      <c r="B36" s="64"/>
+      <c r="C36" s="73" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="76" t="s">
-        <v>562</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>508</v>
-      </c>
-      <c r="E35" s="67" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
-        <v>563</v>
-      </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="76" t="s">
-        <v>564</v>
-      </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67" t="s">
-        <v>620</v>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="76" t="s">
-        <v>565</v>
-      </c>
-      <c r="D37" s="67" t="s">
-        <v>514</v>
-      </c>
-      <c r="E37" s="67" t="s">
-        <v>621</v>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="73" t="s">
+        <v>617</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>500</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
-        <v>566</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>567</v>
-      </c>
-      <c r="C38" s="76" t="s">
-        <v>568</v>
-      </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67" t="s">
-        <v>569</v>
+      <c r="A38" s="66" t="s">
+        <v>591</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>520</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>616</v>
+      </c>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
-        <v>570</v>
-      </c>
-      <c r="B39" s="67"/>
-      <c r="C39" s="76" t="s">
-        <v>571</v>
-      </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67" t="s">
-        <v>572</v>
+      <c r="A39" s="66" t="s">
+        <v>592</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="73" t="s">
+        <v>615</v>
+      </c>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="72" t="s">
+      <c r="C56" s="69" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="72" t="s">
-        <v>573</v>
+      <c r="C57" s="69" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="72" t="s">
-        <v>574</v>
+      <c r="C58" s="69" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="72" t="s">
-        <v>575</v>
+      <c r="C59" s="69" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="72" t="s">
-        <v>576</v>
+      <c r="C60" s="69" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="72" t="s">
-        <v>577</v>
+      <c r="C61" s="69" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -7477,7 +7491,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7561,7 +7575,7 @@
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7759,8 +7773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7769,22 +7783,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
@@ -7794,13 +7808,13 @@
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="75" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
@@ -7810,13 +7824,13 @@
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
@@ -7826,13 +7840,13 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>348</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
@@ -7842,13 +7856,13 @@
       <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="75" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -8222,58 +8236,58 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="75" t="s">
         <v>343</v>
       </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="75" t="s">
         <v>344</v>
       </c>
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="75" t="s">
         <v>345</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8446,6 +8460,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A3:E3"/>
@@ -8453,11 +8472,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8480,58 +8494,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="75" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="75" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8671,58 +8685,58 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="75" t="s">
         <v>339</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="75" t="s">
         <v>340</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="75" t="s">
         <v>341</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="75" t="s">
         <v>342</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8871,58 +8885,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="75" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -9127,58 +9141,58 @@
       <c r="K21" s="33"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="75" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="75" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="75" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9313,58 +9327,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="75" t="s">
         <v>370</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9761,58 +9775,58 @@
       <c r="G55" s="33"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="63" t="s">
+      <c r="A58" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="63"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="75" t="s">
         <v>324</v>
       </c>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="75" t="s">
         <v>325</v>
       </c>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9896,6 +9910,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A64:E64"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A60:E60"/>
     <mergeCell ref="A1:E1"/>
@@ -9903,11 +9922,6 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A64:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9927,58 +9941,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="75" t="s">
         <v>368</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -10180,58 +10194,58 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="75" t="s">
         <v>316</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Protokol MT310 definition.xlsx
+++ b/Protokol MT310 definition.xlsx
@@ -27,12 +27,13 @@
     <sheet name="HV-ADAPTER" sheetId="9" r:id="rId13"/>
     <sheet name="MT-300-TFA" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="653">
   <si>
     <t>Command from MT310 to MERILNA PCB, MT-300-TFA, HV ADAPTER</t>
   </si>
@@ -1785,9 +1786,6 @@
     <t>1. Cable type: "1_P" or "3_P"</t>
   </si>
   <si>
-    <t>init CORD test, runs mains test and return its result</t>
-  </si>
-  <si>
     <t>Position of L conductor</t>
   </si>
   <si>
@@ -1896,9 +1894,6 @@
     <t>PE_OPEN</t>
   </si>
   <si>
-    <t>1. CW failures</t>
-  </si>
-  <si>
     <t>Mains status</t>
   </si>
   <si>
@@ -1929,9 +1924,6 @@
     <t>1. Pass, 2. Riso phase to phase fault-s</t>
   </si>
   <si>
-    <t>stop CORD meaurement</t>
-  </si>
-  <si>
     <t>INTERMEDIATE COMMANDS</t>
   </si>
   <si>
@@ -1981,9 +1973,6 @@
   </si>
   <si>
     <t>stop RPE 30A MACH measurement</t>
-  </si>
-  <si>
-    <t>1. URES Phase voltage to measure</t>
   </si>
   <si>
     <t>start dedicated URES measurement, when started is returned all is set</t>
@@ -2492,9 +2481,6 @@
     <t>&gt;PA:ID:CORD:INIT:(1.)::1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;PA:ID:CORD:START_C_W:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;PA:ID:CORD:START_CONT:::1:CRC:#013#010</t>
   </si>
   <si>
@@ -2516,9 +2502,6 @@
     <t>&gt;PA:ID:CORD:RPE_H_STARTED:::1:CRC:</t>
   </si>
   <si>
-    <t>&gt;PA:ID:CORD:RPE_RES|(1.):::1:CRC:</t>
-  </si>
-  <si>
     <t>&gt;PA:ID:CORD:RPE_STOPPED:::1:CRC:</t>
   </si>
   <si>
@@ -2528,9 +2511,6 @@
     <t>&gt;PA:ID:CORD:RISO_STOPPED:::1:CRC:</t>
   </si>
   <si>
-    <t>&gt;PA:ID:CORD:RISO_RES|(1.):::1:CRC:</t>
-  </si>
-  <si>
     <t>&gt;PA:ID:MACH:INIT:(1.)::1:CRC:#013#010</t>
   </si>
   <si>
@@ -2546,9 +2526,6 @@
     <t>&gt;PA:ID:MACH:START_ONE-PE:::1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;PA:ID:MACH:START_URES:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;PA:ID:MACH:URES_OPEN:::1:CRC:#013#010</t>
   </si>
   <si>
@@ -2558,36 +2535,18 @@
     <t>&gt;AP:ID:CORD:CW_STARTED:::1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;AP:ID:CORD:CW,(1):::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AP:ID:CORD:CONT_STARTED:::1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;AP:ID:CORD:CONT|(1),(2)|(3):::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AP:ID:CORD:ALL-PE_STARTED:::1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;AP:ID:CORD:RISO_ALL-PE|(1):::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AP:ID:ONE-PE_STARTED:::1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;AP:ID:CORD:RISO_ONE-PE|(1),(2):::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AP:ID:CORD:PH-PH_STARTED:::1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;AP:ID:CORD:RISO_PH-PH|(1),(2):::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:31:CORD:STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AP:ID:CORD:RPE_L_START:::1:CRC:#013#010</t>
   </si>
   <si>
@@ -2609,30 +2568,15 @@
     <t>&gt;AP:ID:CORD:RISO_STOP:::1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;AP:03:STATUS:PHASE_S|(1.),L_POS|(2.),MAINS|(3.):MAINS_STAT</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:INITIATED::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:RPE_STARTED::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AP:ID:MACH:URES_OPENED:::1:CRC:#013#010</t>
   </si>
   <si>
     <t>&gt;AP:ID:MACH:URES_STARTED:::1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;AP:ID:MACH:RISO_ONE-PE|(1),(2):::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AP:ID:MACH:ONE-PE_STARTED:::1:CRC:#013#010</t>
   </si>
   <si>
-    <t>&gt;AP:ID:MACH:RISO_ALL-PE|(1):::1:CRC:#013#010</t>
-  </si>
-  <si>
     <t>&gt;AP:ID:MACH:ALL-PE_STARTED:::1:CRC:#013#010</t>
   </si>
   <si>
@@ -2643,6 +2587,150 @@
   </si>
   <si>
     <t>&gt;AP:ID:MACH:INITIATED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. Pass 2. CW failures</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:CW_RESULT:(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:CONT:(1),(2)|(3)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:03:STATUS:MAINS:PHASE_S|(1.),L_POS|(2.),MAINS|(3.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_ALL-PE_RESULT:(1)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:RISO_ALL-PE_RESULT:(1)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:RISO_ONE-PE_RESULT:(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_ONE-PE_RESULT:(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_PH-PH_RESULT:(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP::::::0:000:#013#010</t>
+  </si>
+  <si>
+    <t>CONNECTION</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:COMMUN:CONNECT_REQUEST:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. Device</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>"MT-310"</t>
+  </si>
+  <si>
+    <t>"PAT"</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:COMMUN:CONNECTION_ESTABLED:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>"MT-300-TFA"</t>
+  </si>
+  <si>
+    <t>Connect request. Returns if all ok with Device (MT-300-TFA) , also returns mains status</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:COMMUN:CONNECTION_DENIED:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. Connection denied</t>
+  </si>
+  <si>
+    <t>"ALREADY_CONNECTED"</t>
+  </si>
+  <si>
+    <t>"DIFF_DEVICE_CONNECTED"</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RPE_RES:RES|(1.)::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RISO_RES:RES|(1.)::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:START_C_W:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:INIT_FAILED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>init CORD not possible, initialisation failed</t>
+  </si>
+  <si>
+    <t>init CORD test (if all OK returns INITIATED), runs mains test and return its result</t>
+  </si>
+  <si>
+    <t>stop and reinit CORD meaurement</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:SET:CABLE_TYPE|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>sets cable phase number (mandatory only if changed from INIT function)</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:SET_COMPLETED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>CORD deinitialized</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:DEINIT:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:DEINITIATED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:START_URES:(1.):(2.):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. URES Phase voltage to measure, 2. Parameters only for simulation</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:INIT_FAILED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>init MACH not possible, initialisation failed</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:SET:CABLE_TYPE|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>stop and reinit MACH meaurement</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:STOP:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:URES_FINISHED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:URES_STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>when URES measurement is finsihed in master device this string has to be returned</t>
   </si>
 </sst>
 </file>
@@ -3176,14 +3264,14 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3568,8 +3656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:K39"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4339,7 +4427,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4604,8 +4692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,10 +5549,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO61"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,14 +5580,14 @@
       <c r="G1" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="80" t="s">
         <v>449</v>
       </c>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
       <c r="N1" s="64"/>
       <c r="O1" s="64"/>
       <c r="P1" s="64"/>
@@ -5530,13 +5618,13 @@
       <c r="AO1" s="64"/>
     </row>
     <row r="2" spans="1:41" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>450</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="64"/>
       <c r="G2" s="70"/>
       <c r="H2" s="70"/>
@@ -5575,13 +5663,13 @@
       <c r="AO2" s="64"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>451</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="64"/>
       <c r="G3" s="70"/>
       <c r="H3" s="70"/>
@@ -5630,10 +5718,10 @@
         <v>452</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="64"/>
@@ -5670,27 +5758,27 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>453</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="64" t="s">
-        <v>454</v>
+        <v>635</v>
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="J5" s="64"/>
       <c r="K5" s="64"/>
@@ -5726,154 +5814,70 @@
       <c r="AO5" s="64"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
-        <v>573</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>453</v>
-      </c>
+      <c r="A6" s="71"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="73" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64" t="s">
-        <v>532</v>
+        <v>634</v>
       </c>
       <c r="F6" s="64"/>
-      <c r="G6" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>457</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>458</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="K6" s="64" t="s">
-        <v>460</v>
-      </c>
-      <c r="L6" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="M6" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="N6" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="O6" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="P6" s="64" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q6" s="64" t="s">
-        <v>466</v>
-      </c>
-      <c r="R6" s="64" t="s">
-        <v>467</v>
-      </c>
-      <c r="S6" s="64" t="s">
-        <v>468</v>
-      </c>
-      <c r="T6" s="64" t="s">
-        <v>469</v>
-      </c>
-      <c r="U6" s="64" t="s">
-        <v>470</v>
-      </c>
-      <c r="V6" s="64" t="s">
-        <v>471</v>
-      </c>
-      <c r="W6" s="64" t="s">
-        <v>472</v>
-      </c>
-      <c r="X6" s="64" t="s">
-        <v>473</v>
-      </c>
-      <c r="Y6" s="64" t="s">
-        <v>474</v>
-      </c>
-      <c r="Z6" s="64" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA6" s="64" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB6" s="64" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC6" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="AD6" s="64" t="s">
-        <v>479</v>
-      </c>
-      <c r="AE6" s="64" t="s">
-        <v>480</v>
-      </c>
-      <c r="AF6" s="64" t="s">
-        <v>481</v>
-      </c>
-      <c r="AG6" s="64" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH6" s="64" t="s">
-        <v>483</v>
-      </c>
-      <c r="AI6" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="AJ6" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="AK6" s="64" t="s">
-        <v>486</v>
-      </c>
-      <c r="AL6" s="64" t="s">
-        <v>487</v>
-      </c>
-      <c r="AM6" s="64" t="s">
-        <v>488</v>
-      </c>
-      <c r="AN6" s="64" t="s">
-        <v>489</v>
-      </c>
-      <c r="AO6" s="64" t="s">
-        <v>490</v>
-      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
+      <c r="A7" s="66" t="s">
+        <v>641</v>
+      </c>
       <c r="B7" s="64"/>
       <c r="C7" s="73" t="s">
-        <v>595</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>491</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="D7" s="64"/>
       <c r="E7" s="64" t="s">
-        <v>533</v>
+        <v>640</v>
       </c>
       <c r="F7" s="64"/>
-      <c r="G7" s="64" t="s">
-        <v>492</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>534</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>535</v>
-      </c>
-      <c r="J7" s="64" t="s">
-        <v>536</v>
-      </c>
-      <c r="K7" s="64" t="s">
-        <v>537</v>
-      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="64"/>
       <c r="M7" s="64"/>
       <c r="N7" s="64"/>
@@ -5905,99 +5909,155 @@
       <c r="AN7" s="64"/>
       <c r="AO7" s="64"/>
     </row>
-    <row r="8" spans="1:41" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>574</v>
-      </c>
-      <c r="B8" s="68"/>
+        <v>632</v>
+      </c>
+      <c r="B8" s="64"/>
       <c r="C8" s="73" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="64" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>539</v>
+        <v>456</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>540</v>
+        <v>457</v>
       </c>
       <c r="J8" s="64" t="s">
-        <v>541</v>
+        <v>458</v>
       </c>
       <c r="K8" s="64" t="s">
-        <v>542</v>
-      </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
-      <c r="AB8" s="64"/>
-      <c r="AC8" s="64"/>
-      <c r="AD8" s="64"/>
-      <c r="AE8" s="64"/>
-      <c r="AF8" s="64"/>
-      <c r="AG8" s="64"/>
-      <c r="AH8" s="64"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="64"/>
-      <c r="AK8" s="64"/>
-      <c r="AL8" s="64"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="64"/>
-      <c r="AO8" s="64"/>
-    </row>
-    <row r="9" spans="1:41" ht="21" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="M8" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="N8" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="R8" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="S8" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="T8" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="U8" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="V8" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="W8" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="X8" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y8" s="64" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z8" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA8" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB8" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC8" s="64" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD8" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE8" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF8" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG8" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH8" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI8" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="AJ8" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="AK8" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="AL8" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM8" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="AN8" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO8" s="64" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="71"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="73" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>494</v>
+        <v>606</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="64" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="J9" s="64" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>547</v>
-      </c>
-      <c r="L9" s="64" t="s">
-        <v>548</v>
-      </c>
-      <c r="M9" s="64" t="s">
-        <v>549</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
       <c r="N9" s="64"/>
       <c r="O9" s="64"/>
       <c r="P9" s="64"/>
@@ -6027,37 +6087,35 @@
       <c r="AN9" s="64"/>
       <c r="AO9" s="64"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="66" t="s">
-        <v>575</v>
-      </c>
-      <c r="B10" s="64"/>
+        <v>569</v>
+      </c>
+      <c r="B10" s="68"/>
       <c r="C10" s="73" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="64" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="J10" s="64" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>531</v>
-      </c>
-      <c r="L10" s="64" t="s">
-        <v>554</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="L10" s="64"/>
       <c r="M10" s="64"/>
       <c r="N10" s="64"/>
       <c r="O10" s="64"/>
@@ -6088,32 +6146,40 @@
       <c r="AN10" s="64"/>
       <c r="AO10" s="64"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="71"/>
-      <c r="B11" s="64"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="73" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="F11" s="64"/>
       <c r="G11" s="64" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>557</v>
-      </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
+        <v>541</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>542</v>
+      </c>
+      <c r="K11" s="64" t="s">
+        <v>543</v>
+      </c>
+      <c r="L11" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="M11" s="64" t="s">
+        <v>545</v>
+      </c>
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
       <c r="P11" s="64"/>
@@ -6145,38 +6211,36 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="73" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="64" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="K12" s="64" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="L12" s="64" t="s">
-        <v>563</v>
-      </c>
-      <c r="M12" s="64" t="s">
-        <v>564</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="M12" s="64"/>
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
       <c r="P12" s="64"/>
@@ -6210,18 +6274,24 @@
       <c r="A13" s="71"/>
       <c r="B13" s="64"/>
       <c r="C13" s="73" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="G13" s="64" t="s">
+        <v>496</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>552</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>553</v>
+      </c>
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
       <c r="L13" s="64"/>
@@ -6257,24 +6327,38 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="73" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
+      <c r="G14" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>556</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="K14" s="64" t="s">
+        <v>558</v>
+      </c>
+      <c r="L14" s="64" t="s">
+        <v>559</v>
+      </c>
+      <c r="M14" s="64" t="s">
+        <v>560</v>
+      </c>
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
       <c r="P14" s="64"/>
@@ -6308,20 +6392,27 @@
       <c r="A15" s="71"/>
       <c r="B15" s="64"/>
       <c r="C15" s="73" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="D15" s="64" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
+      <c r="G15" s="64" t="s">
+        <v>620</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>621</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>624</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>622</v>
+      </c>
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
       <c r="N15" s="64"/>
@@ -6355,20 +6446,26 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="73" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="64" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="G16" t="s">
+        <v>627</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>628</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>629</v>
+      </c>
       <c r="J16" s="64"/>
       <c r="K16" s="64"/>
       <c r="L16" s="64"/>
@@ -6402,14 +6499,18 @@
       <c r="AN16" s="64"/>
       <c r="AO16" s="64"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
-        <v>503</v>
-      </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="73" t="s">
+        <v>615</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>499</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>563</v>
+      </c>
       <c r="F17" s="64"/>
       <c r="G17" s="64"/>
       <c r="H17" s="64"/>
@@ -6418,18 +6519,48 @@
       <c r="K17" s="64"/>
       <c r="L17" s="64"/>
       <c r="M17" s="64"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
-        <v>579</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="74" t="s">
-        <v>605</v>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="64"/>
+      <c r="AF17" s="64"/>
+      <c r="AG17" s="64"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="64"/>
+      <c r="AJ17" s="64"/>
+      <c r="AK17" s="64"/>
+      <c r="AL17" s="64"/>
+      <c r="AM17" s="64"/>
+      <c r="AN17" s="64"/>
+      <c r="AO17" s="64"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" s="66" t="s">
+        <v>637</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>639</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="64" t="s">
-        <v>504</v>
+        <v>638</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
@@ -6439,18 +6570,46 @@
       <c r="K18" s="64"/>
       <c r="L18" s="64"/>
       <c r="M18" s="64"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
-        <v>580</v>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="64"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="64"/>
+      <c r="AO18" s="64"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" s="66" t="s">
+        <v>573</v>
       </c>
       <c r="B19" s="64"/>
-      <c r="C19" s="74" t="s">
-        <v>606</v>
+      <c r="C19" s="73" t="s">
+        <v>605</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64" t="s">
-        <v>505</v>
+        <v>636</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
@@ -6460,23 +6619,43 @@
       <c r="K19" s="64"/>
       <c r="L19" s="64"/>
       <c r="M19" s="64"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
-        <v>581</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>506</v>
-      </c>
-      <c r="C20" s="74" t="s">
-        <v>610</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>507</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>508</v>
-      </c>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="64"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="64"/>
+      <c r="AK19" s="64"/>
+      <c r="AL19" s="64"/>
+      <c r="AM19" s="64"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" s="81" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="64"/>
       <c r="G20" s="64"/>
       <c r="H20" s="64"/>
@@ -6486,17 +6665,17 @@
       <c r="L20" s="64"/>
       <c r="M20" s="64"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="74" t="s">
-        <v>607</v>
-      </c>
-      <c r="D21" s="71"/>
+        <v>591</v>
+      </c>
+      <c r="D21" s="64"/>
       <c r="E21" s="64" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="64"/>
@@ -6507,17 +6686,17 @@
       <c r="L21" s="64"/>
       <c r="M21" s="64"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="74" t="s">
-        <v>608</v>
-      </c>
-      <c r="D22" s="71"/>
+        <v>592</v>
+      </c>
+      <c r="D22" s="64"/>
       <c r="E22" s="64" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="64"/>
@@ -6528,21 +6707,21 @@
       <c r="L22" s="64"/>
       <c r="M22" s="64"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
-        <v>585</v>
+        <v>630</v>
       </c>
       <c r="B23" s="64" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="D23" s="71" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F23" s="64"/>
       <c r="G23" s="64"/>
@@ -6553,17 +6732,17 @@
       <c r="L23" s="64"/>
       <c r="M23" s="64"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="74" t="s">
-        <v>611</v>
-      </c>
-      <c r="D24" s="64"/>
+        <v>593</v>
+      </c>
+      <c r="D24" s="71"/>
       <c r="E24" s="64" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
@@ -6574,17 +6753,42 @@
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64" t="s">
-        <v>612</v>
-      </c>
-      <c r="D26" s="64" t="s">
-        <v>514</v>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
+        <v>577</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="74" t="s">
+        <v>594</v>
+      </c>
+      <c r="D25" s="71"/>
+      <c r="E25" s="64" t="s">
+        <v>507</v>
+      </c>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" s="65" t="s">
+        <v>631</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>595</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>504</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F26" s="64"/>
       <c r="G26" s="64"/>
@@ -6595,232 +6799,435 @@
       <c r="L26" s="64"/>
       <c r="M26" s="64"/>
     </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="80" t="s">
-        <v>516</v>
-      </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="78" t="s">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
+        <v>578</v>
+      </c>
+      <c r="B27" s="64"/>
+      <c r="C27" s="74" t="s">
+        <v>597</v>
+      </c>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64" t="s">
+        <v>510</v>
+      </c>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" s="64"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64" t="s">
+        <v>609</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+    </row>
+    <row r="31" spans="1:41" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
+        <v>513</v>
+      </c>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" s="79" t="s">
         <v>451</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
-        <v>586</v>
-      </c>
-      <c r="B31" s="64" t="s">
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+    </row>
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A34" s="66" t="s">
+        <v>579</v>
+      </c>
+      <c r="B34" s="64" t="s">
         <v>453</v>
       </c>
-      <c r="C31" s="73" t="s">
-        <v>623</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64" t="s">
-        <v>517</v>
-      </c>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
-        <v>587</v>
-      </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="73" t="s">
-        <v>622</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64" t="s">
-        <v>518</v>
-      </c>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
-        <v>588</v>
-      </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="73" t="s">
-        <v>621</v>
-      </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="66" t="s">
-        <v>589</v>
-      </c>
-      <c r="B34" s="64"/>
       <c r="C34" s="73" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="D34" s="64"/>
       <c r="E34" s="64" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+        <v>514</v>
+      </c>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A35" s="71"/>
       <c r="B35" s="64"/>
       <c r="C35" s="73" t="s">
-        <v>619</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>497</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="D35" s="64"/>
       <c r="E35" s="64" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="66" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="B36" s="64"/>
       <c r="C36" s="73" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="D36" s="64"/>
       <c r="E36" s="64" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
+        <v>515</v>
+      </c>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A37" s="66" t="s">
+        <v>581</v>
+      </c>
       <c r="B37" s="64"/>
       <c r="C37" s="73" t="s">
-        <v>617</v>
-      </c>
-      <c r="D37" s="64" t="s">
-        <v>500</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="D37" s="64"/>
       <c r="E37" s="64" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="66" t="s">
-        <v>591</v>
-      </c>
-      <c r="B38" s="64" t="s">
-        <v>520</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="B38" s="64"/>
       <c r="C38" s="73" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="D38" s="64"/>
       <c r="E38" s="64" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="66" t="s">
-        <v>592</v>
-      </c>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A39" s="64"/>
       <c r="B39" s="64"/>
       <c r="C39" s="73" t="s">
-        <v>615</v>
-      </c>
-      <c r="D39" s="64"/>
+        <v>612</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>495</v>
+      </c>
       <c r="E39" s="64" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A40" s="66" t="s">
+        <v>583</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="73" t="s">
+        <v>600</v>
+      </c>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A41" s="64"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="73" t="s">
+        <v>613</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>498</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A42" s="66" t="s">
+        <v>643</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>644</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>599</v>
+      </c>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A43" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="B43" s="64"/>
+      <c r="C43" s="73" t="s">
+        <v>598</v>
+      </c>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A44" s="66" t="s">
+        <v>650</v>
+      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="73" t="s">
+        <v>651</v>
+      </c>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A45" s="66" t="s">
+        <v>647</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C45" s="73" t="s">
+        <v>639</v>
+      </c>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64" t="s">
+        <v>638</v>
+      </c>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="64"/>
+      <c r="V45" s="64"/>
+      <c r="W45" s="64"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="64"/>
+      <c r="Z45" s="64"/>
+      <c r="AA45" s="64"/>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="64"/>
+      <c r="AE45" s="64"/>
+      <c r="AF45" s="64"/>
+      <c r="AG45" s="64"/>
+      <c r="AH45" s="64"/>
+      <c r="AI45" s="64"/>
+      <c r="AJ45" s="64"/>
+      <c r="AK45" s="64"/>
+      <c r="AL45" s="64"/>
+      <c r="AM45" s="64"/>
+      <c r="AN45" s="64"/>
+      <c r="AO45" s="64"/>
+    </row>
+    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A46" s="66" t="s">
+        <v>649</v>
+      </c>
+      <c r="C46" s="73" t="s">
+        <v>610</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C49" s="73" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="78" t="s">
+        <v>617</v>
+      </c>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="79" t="s">
+        <v>451</v>
+      </c>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="70"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="66" t="s">
+        <v>618</v>
+      </c>
+      <c r="B53" t="s">
+        <v>619</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="D53" t="s">
+        <v>619</v>
+      </c>
+      <c r="E53" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C54" s="73" t="s">
+        <v>626</v>
+      </c>
+      <c r="D54" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C62" s="69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C63" s="69" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C64" s="69" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="69" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="69" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="69" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="69" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="69" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="69" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="69" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="69" t="s">
-        <v>527</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A29:E29"/>
+  <mergeCells count="8">
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6828,8 +7235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Protokol MT310 definition.xlsx
+++ b/Protokol MT310 definition.xlsx
@@ -1978,9 +1978,6 @@
     <t>start dedicated URES measurement, when started is returned all is set</t>
   </si>
   <si>
-    <t>open input contactors at peak input voltage. Return when the contactors are opened.</t>
-  </si>
-  <si>
     <t>&gt;MP:01:RCD:EVENT:READY_OFF::1:CRC:#013#010</t>
   </si>
   <si>
@@ -2731,6 +2728,9 @@
   </si>
   <si>
     <t>when URES measurement is finsihed in master device this string has to be returned</t>
+  </si>
+  <si>
+    <t>open input contactors at peak input voltage. Return when the contactors are opened (for info).</t>
   </si>
 </sst>
 </file>
@@ -5193,7 +5193,7 @@
   <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5551,8 +5551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5718,10 +5718,10 @@
         <v>452</v>
       </c>
       <c r="H4" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="I4" s="64" t="s">
         <v>524</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>525</v>
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="64"/>
@@ -5758,27 +5758,27 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>453</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="64" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="64" t="s">
         <v>454</v>
       </c>
       <c r="H5" s="64" t="s">
+        <v>525</v>
+      </c>
+      <c r="I5" s="64" t="s">
         <v>526</v>
-      </c>
-      <c r="I5" s="64" t="s">
-        <v>527</v>
       </c>
       <c r="J5" s="64"/>
       <c r="K5" s="64"/>
@@ -5817,11 +5817,11 @@
       <c r="A6" s="71"/>
       <c r="B6" s="64"/>
       <c r="C6" s="73" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
@@ -5862,15 +5862,15 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="66" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B7" s="64"/>
       <c r="C7" s="73" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="64" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="64"/>
@@ -5911,15 +5911,15 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B8" s="64"/>
       <c r="C8" s="73" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="64" t="s">
@@ -6032,29 +6032,29 @@
       <c r="A9" s="71"/>
       <c r="B9" s="64"/>
       <c r="C9" s="73" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="64" t="s">
         <v>490</v>
       </c>
       <c r="H9" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="I9" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="J9" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="K9" s="64" t="s">
         <v>532</v>
-      </c>
-      <c r="K9" s="64" t="s">
-        <v>533</v>
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="64"/>
@@ -6089,31 +6089,31 @@
     </row>
     <row r="10" spans="1:41" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="73" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="64" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64" t="s">
         <v>491</v>
       </c>
       <c r="H10" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="I10" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="J10" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="K10" s="64" t="s">
         <v>537</v>
-      </c>
-      <c r="K10" s="64" t="s">
-        <v>538</v>
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="64"/>
@@ -6150,35 +6150,35 @@
       <c r="A11" s="71"/>
       <c r="B11" s="68"/>
       <c r="C11" s="73" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D11" s="64" t="s">
         <v>492</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F11" s="64"/>
       <c r="G11" s="64" t="s">
         <v>493</v>
       </c>
       <c r="H11" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="I11" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="J11" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="K11" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="L11" s="64" t="s">
         <v>543</v>
       </c>
-      <c r="L11" s="64" t="s">
+      <c r="M11" s="64" t="s">
         <v>544</v>
-      </c>
-      <c r="M11" s="64" t="s">
-        <v>545</v>
       </c>
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
@@ -6211,34 +6211,34 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="73" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="64" t="s">
         <v>494</v>
       </c>
       <c r="H12" s="64" t="s">
+        <v>546</v>
+      </c>
+      <c r="I12" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="J12" s="64" t="s">
         <v>548</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="K12" s="64" t="s">
+        <v>526</v>
+      </c>
+      <c r="L12" s="64" t="s">
         <v>549</v>
-      </c>
-      <c r="K12" s="64" t="s">
-        <v>527</v>
-      </c>
-      <c r="L12" s="64" t="s">
-        <v>550</v>
       </c>
       <c r="M12" s="64"/>
       <c r="N12" s="64"/>
@@ -6274,23 +6274,23 @@
       <c r="A13" s="71"/>
       <c r="B13" s="64"/>
       <c r="C13" s="73" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>495</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F13" s="64"/>
       <c r="G13" s="64" t="s">
         <v>496</v>
       </c>
       <c r="H13" s="64" t="s">
+        <v>551</v>
+      </c>
+      <c r="I13" s="64" t="s">
         <v>552</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>553</v>
       </c>
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
@@ -6327,37 +6327,37 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="73" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F14" s="64"/>
       <c r="G14" s="64" t="s">
         <v>497</v>
       </c>
       <c r="H14" s="64" t="s">
+        <v>554</v>
+      </c>
+      <c r="I14" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="J14" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="K14" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="L14" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="L14" s="64" t="s">
+      <c r="M14" s="64" t="s">
         <v>559</v>
-      </c>
-      <c r="M14" s="64" t="s">
-        <v>560</v>
       </c>
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
@@ -6392,26 +6392,26 @@
       <c r="A15" s="71"/>
       <c r="B15" s="64"/>
       <c r="C15" s="73" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D15" s="64" t="s">
         <v>498</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="H15" s="64" t="s">
         <v>620</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="I15" s="64" t="s">
+        <v>623</v>
+      </c>
+      <c r="J15" s="64" t="s">
         <v>621</v>
-      </c>
-      <c r="I15" s="64" t="s">
-        <v>624</v>
-      </c>
-      <c r="J15" s="64" t="s">
-        <v>622</v>
       </c>
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
@@ -6446,25 +6446,25 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="73" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="64" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F16" s="64"/>
       <c r="G16" t="s">
+        <v>626</v>
+      </c>
+      <c r="H16" s="64" t="s">
         <v>627</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="I16" s="64" t="s">
         <v>628</v>
-      </c>
-      <c r="I16" s="64" t="s">
-        <v>629</v>
       </c>
       <c r="J16" s="64"/>
       <c r="K16" s="64"/>
@@ -6503,13 +6503,13 @@
       <c r="A17" s="71"/>
       <c r="B17" s="64"/>
       <c r="C17" s="73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D17" s="64" t="s">
         <v>499</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="64"/>
@@ -6550,17 +6550,17 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="66" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>453</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
@@ -6601,15 +6601,15 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="66" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="73" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
@@ -6667,11 +6667,11 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="74" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D21" s="64"/>
       <c r="E21" s="64" t="s">
@@ -6688,11 +6688,11 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="74" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D22" s="64"/>
       <c r="E22" s="64" t="s">
@@ -6709,13 +6709,13 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>503</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D23" s="71" t="s">
         <v>504</v>
@@ -6734,11 +6734,11 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="74" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="64" t="s">
@@ -6755,11 +6755,11 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B25" s="64"/>
       <c r="C25" s="74" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D25" s="71"/>
       <c r="E25" s="64" t="s">
@@ -6776,13 +6776,13 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B26" s="64" t="s">
         <v>508</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D26" s="71" t="s">
         <v>504</v>
@@ -6801,11 +6801,11 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B27" s="64"/>
       <c r="C27" s="74" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D27" s="64"/>
       <c r="E27" s="64" t="s">
@@ -6824,7 +6824,7 @@
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D29" s="64" t="s">
         <v>511</v>
@@ -6892,13 +6892,13 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="66" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>453</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D34" s="64"/>
       <c r="E34" s="64" t="s">
@@ -6917,11 +6917,11 @@
       <c r="A35" s="71"/>
       <c r="B35" s="64"/>
       <c r="C35" s="73" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D35" s="64"/>
       <c r="E35" s="64" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -6934,11 +6934,11 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="66" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B36" s="64"/>
       <c r="C36" s="73" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D36" s="64"/>
       <c r="E36" s="64" t="s">
@@ -6955,11 +6955,11 @@
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="66" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B37" s="64"/>
       <c r="C37" s="73" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D37" s="64"/>
       <c r="E37" s="64" t="s">
@@ -6968,65 +6968,65 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="66" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B38" s="64"/>
       <c r="C38" s="73" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D38" s="64"/>
       <c r="E38" s="64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="64"/>
       <c r="B39" s="64"/>
       <c r="C39" s="73" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D39" s="64" t="s">
         <v>495</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="66" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="73" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D40" s="64"/>
       <c r="E40" s="64" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="64"/>
       <c r="B41" s="64"/>
       <c r="C41" s="73" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D41" s="64" t="s">
         <v>498</v>
       </c>
       <c r="E41" s="64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="66" t="s">
+        <v>642</v>
+      </c>
+      <c r="B42" s="64" t="s">
         <v>643</v>
       </c>
-      <c r="B42" s="64" t="s">
-        <v>644</v>
-      </c>
       <c r="C42" s="73" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D42" s="64"/>
       <c r="E42" s="64" t="s">
@@ -7035,43 +7035,43 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="66" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B43" s="64"/>
       <c r="C43" s="73" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D43" s="64"/>
       <c r="E43" s="64" t="s">
-        <v>518</v>
+        <v>652</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B44" s="64"/>
       <c r="C44" s="73" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D44" s="64"/>
       <c r="E44" s="64" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="66" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B45" s="64" t="s">
         <v>453</v>
       </c>
       <c r="C45" s="73" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D45" s="64"/>
       <c r="E45" s="64" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F45" s="64"/>
       <c r="G45" s="64"/>
@@ -7112,23 +7112,23 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="66" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C46" s="73" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E46" s="64" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C49" s="73" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="78" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B51" s="78"/>
       <c r="C51" s="78"/>
@@ -7162,27 +7162,27 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="66" t="s">
+        <v>617</v>
+      </c>
+      <c r="B53" t="s">
         <v>618</v>
       </c>
-      <c r="B53" t="s">
-        <v>619</v>
-      </c>
       <c r="C53" s="73" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D53" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E53" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C54" s="73" t="s">
+        <v>625</v>
+      </c>
+      <c r="D54" t="s">
         <v>626</v>
-      </c>
-      <c r="D54" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -7192,27 +7192,27 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C63" s="69" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C64" s="69" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="69" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="69" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/Protokol MT310 definition.xlsx
+++ b/Protokol MT310 definition.xlsx
@@ -28,12 +28,11 @@
     <sheet name="MT-300-TFA" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="755">
   <si>
     <t>Command from MT310 to MERILNA PCB, MT-300-TFA, HV ADAPTER</t>
   </si>
@@ -1924,9 +1923,6 @@
     <t>1. Pass, 2. Riso phase to phase fault-s</t>
   </si>
   <si>
-    <t>INTERMEDIATE COMMANDS</t>
-  </si>
-  <si>
     <t>Start RPE low current measurement</t>
   </si>
   <si>
@@ -1973,9 +1969,6 @@
   </si>
   <si>
     <t>stop RPE 30A MACH measurement</t>
-  </si>
-  <si>
-    <t>start dedicated URES measurement, when started is returned all is set</t>
   </si>
   <si>
     <t>&gt;MP:01:RCD:EVENT:READY_OFF::1:CRC:#013#010</t>
@@ -2420,6 +2413,358 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Transmitt MACH Riso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:INIT:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:START_CONT:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:START_ALL-PE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:START_ONE-PE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:START_PH_PH:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:STOP:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RPE_L_STARTED:::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RPE_H_STARTED:::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RPE_STOPPED:::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RISO_STARTED:::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RISO_STOPPED:::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:INIT:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:START_RPE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:STOP_RPE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:START_ALL-PE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:START_ONE-PE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:URES_OPEN:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:INITIATED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:CW_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:CONT_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:ALL-PE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:ONE-PE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:PH-PH_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RPE_L_START:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RPE_H_START:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RPE_STOP:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_START:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_RES_GET::(1):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RPE_RES_GET::(1):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_STOP:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:URES_OPENED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:URES_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:ONE-PE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:ALL-PE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:RPE_STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:RPE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:INITIATED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. Pass 2. CW failures</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:CW_RESULT:(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:CONT:(1),(2)|(3)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:03:STATUS:MAINS:PHASE_S|(1.),L_POS|(2.),MAINS|(3.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_ALL-PE_RESULT:(1)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:RISO_ALL-PE_RESULT:(1)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:RISO_ONE-PE_RESULT:(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_ONE-PE_RESULT:(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:RISO_PH-PH_RESULT:(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP::::::0:000:#013#010</t>
+  </si>
+  <si>
+    <t>CONNECTION</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:COMMUN:CONNECT_REQUEST:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. Device</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>"MT-310"</t>
+  </si>
+  <si>
+    <t>"PAT"</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:COMMUN:CONNECTION_ESTABLED:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>"MT-300-TFA"</t>
+  </si>
+  <si>
+    <t>Connect request. Returns if all ok with Device (MT-300-TFA) , also returns mains status</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:COMMUN:CONNECTION_DENIED:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. Connection denied</t>
+  </si>
+  <si>
+    <t>"ALREADY_CONNECTED"</t>
+  </si>
+  <si>
+    <t>"DIFF_DEVICE_CONNECTED"</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RPE_RES:RES|(1.)::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:RISO_RES:RES|(1.)::1:CRC:</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:START_C_W:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:INIT_FAILED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>init CORD not possible, initialisation failed</t>
+  </si>
+  <si>
+    <t>init CORD test (if all OK returns INITIATED), runs mains test and return its result</t>
+  </si>
+  <si>
+    <t>stop and reinit CORD meaurement</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:SET:CABLE_TYPE|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>sets cable phase number (mandatory only if changed from INIT function)</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:SET_COMPLETED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>CORD deinitialized</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CORD:DEINIT:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CORD:DEINITIATED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:START_URES:(1.):(2.):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. URES Phase voltage to measure, 2. Parameters only for simulation</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:INIT_FAILED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>init MACH not possible, initialisation failed</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:SET:CABLE_TYPE|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>stop and reinit MACH meaurement</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:STOP:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MACH:URES_FINISHED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:URES_STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>when URES measurement is finsihed in master device this string has to be returned</t>
+  </si>
+  <si>
+    <t>open input contactors at peak input voltage. Return when the contactors are opened (for info).</t>
+  </si>
+  <si>
+    <t>WELDING</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:INIT:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:START_RPE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:RPE_STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:START_ALL-PE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:ALL-PE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:RISO_ALL-PE_RESULT:(1)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:START_ONE-PE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:ONE-PE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:RISO_ONE-PE_RESULT:(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:SET:CABLE_TYPE|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:STOP:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>stop and reinit WELD meaurement</t>
+  </si>
+  <si>
+    <t>init WELD test, runs mains test and return its result</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:INIT_FAILED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>init WELD not possible, initialisation failed</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:RPE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:STOP_RPE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:INITIATED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:MACH:SET_COMPLETED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:SET_COMPLETED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <r>
       <t>start</t>
     </r>
     <r>
@@ -2443,12 +2788,423 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> MACH measurement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt MACH Riso </t>
+      <t xml:space="preserve"> MACH measurement.  If ALL-PE is not completed jet, it is started implicitly.</t>
+    </r>
+  </si>
+  <si>
+    <t>INTERMEDIATE COMMANDS (MT-300-TFA asks)</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:MAINS-WELD_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:MAINS-WELD_RESULT:(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:MAINS-CLASS2_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:WELD-PE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:MAINS-CLASS2_RESULT:(1)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:WELD-PE_RESULT:(1)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>Cont/single</t>
+  </si>
+  <si>
+    <t>Connection denied</t>
+  </si>
+  <si>
+    <t>"CONT"</t>
+  </si>
+  <si>
+    <t>"SINGLE"</t>
+  </si>
+  <si>
+    <t>1. Cont/single</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:START_MAINS-WELD:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:START_MAINS-CLASS2:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:START_WELD-PE:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:STOP_MAINS-CLASS2:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:MAINS-CLASS2_STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:STOP_WELD-PE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:WELD-PE_STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:STOP_MAINS-WELD:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:MAINS-WELD_STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:START_UNL_RMS:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:UNL_RMS_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U-NO-LOAD RMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement. When everithing is set started is returned</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:STOP_UNL_RMS:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:UNL_RMS_STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U-NO-LOAD RMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>welding to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt WELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>welding to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>welding to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement. If measurement is set to continious started is returned when everithing is set and MT-300-TFA is not in command.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAINS to CLASS2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt WELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MAINS to CLASS2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAINS to CLASS2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement. If measurement is set to continious started is returned when everithing is set and MT-300-TFA is not in command.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAINS to welding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt WELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAINS to welding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MAINS to welding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WELD measurement. If measurement is set to continious started is returned when everithing is set and MT-300-TFA is not in command.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt WELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Riso Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
     </r>
     <r>
       <rPr>
@@ -2471,266 +3227,365 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:INIT:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:START_CONT:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:START_ALL-PE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:START_ONE-PE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:START_PH_PH:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:STOP:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RPE_L_STARTED:::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RPE_H_STARTED:::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RPE_STOPPED:::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RISO_STARTED:::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RISO_STOPPED:::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:INIT:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:START_RPE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:STOP_RPE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:START_ALL-PE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:START_ONE-PE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:URES_OPEN:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:INITIATED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:CW_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:CONT_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:ALL-PE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:ONE-PE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:PH-PH_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RPE_L_START:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RPE_H_START:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RPE_STOP:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_START:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_RES_GET::(1):1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RPE_RES_GET::(1):1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_STOP:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:URES_OPENED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:URES_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:ONE-PE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:ALL-PE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:RPE_STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:RPE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:INITIATED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>1. Pass 2. CW failures</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:CW_RESULT:(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:CONT:(1),(2)|(3)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:03:STATUS:MAINS:PHASE_S|(1.),L_POS|(2.),MAINS|(3.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_ALL-PE_RESULT:(1)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:RISO_ALL-PE_RESULT:(1)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:RISO_ONE-PE_RESULT:(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_ONE-PE_RESULT:(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_PH-PH_RESULT:(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP::::::0:000:#013#010</t>
-  </si>
-  <si>
-    <t>CONNECTION</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:COMMUN:CONNECT_REQUEST:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>1. Device</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>"MT-310"</t>
-  </si>
-  <si>
-    <t>"PAT"</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:COMMUN:CONNECTION_ESTABLED:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>"MT-300-TFA"</t>
-  </si>
-  <si>
-    <t>Connect request. Returns if all ok with Device (MT-300-TFA) , also returns mains status</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:COMMUN:CONNECTION_DENIED:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>1. Connection denied</t>
-  </si>
-  <si>
-    <t>"ALREADY_CONNECTED"</t>
-  </si>
-  <si>
-    <t>"DIFF_DEVICE_CONNECTED"</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RPE_RES:RES|(1.)::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RISO_RES:RES|(1.)::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:START_C_W:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:INIT_FAILED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>init CORD not possible, initialisation failed</t>
-  </si>
-  <si>
-    <t>init CORD test (if all OK returns INITIATED), runs mains test and return its result</t>
-  </si>
-  <si>
-    <t>stop and reinit CORD meaurement</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:SET:CABLE_TYPE|(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>sets cable phase number (mandatory only if changed from INIT function)</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:SET_COMPLETED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>CORD deinitialized</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:DEINIT:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:DEINITIATED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:START_URES:(1.):(2.):1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>1. URES Phase voltage to measure, 2. Parameters only for simulation</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:INIT_FAILED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>init MACH not possible, initialisation failed</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:SET:CABLE_TYPE|(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>stop and reinit MACH meaurement</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:STOP:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:URES_FINISHED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:URES_STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>when URES measurement is finsihed in master device this string has to be returned</t>
-  </si>
-  <si>
-    <t>open input contactors at peak input voltage. Return when the contactors are opened (for info).</t>
+      <t xml:space="preserve"> WELD measurement. If ALL-PE is not completed jet, it is started implicitly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt WELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">All Phases to PE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>stop</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RPE 30A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RPE 30A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement, when return command is transmitted everithing is set</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:START_UNL_PEAK:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:UNL_PEAK_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:STOP_UNL_PEAK:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:UNL_PEAK_STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">U-NO-LOAD PEAK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WELD measurement. When everithing is set started is returned</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U-NO-LOAD PEAK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start dedicated </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> measurement, when started is returned all is set</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:GET_VOLTAGE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:START_ANALYZE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:ANALYZE_STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MAINS ANALYZW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WELD measurement</t>
+    </r>
+  </si>
+  <si>
+    <t>get measured voltage</t>
+  </si>
+  <si>
+    <t>1.-4. Voltage in %.2f</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:GET_CURRENT:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:VOLTAGE:ULN1|(1.),ULN2|(2.),ULN3|(3.),UNPE|(4.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>get measured current</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:CURRENT:IL1|(1.),IL2|(2.),IL3|(3.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:GET_THD_C:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:GET_THD_V:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:THD_V:T_ULN1|(1.),T_ULN2|(2.),T-ULN3|(3.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:THD_C:T_IL1|(1.),T_IL2|(2.),T_IL3|(3.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>get current THD, updated every 2s</t>
+  </si>
+  <si>
+    <t>get voltage THD, updated every 2s</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:GET_POWER_R:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1.-4. Power in %.1f</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:GET_PF:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>get computed real power</t>
+  </si>
+  <si>
+    <t>get computed apparent power</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:GET_POWER_A:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1.-4. Power factor in %.3f</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELDPF:PFL1|(1.),PFL2|(2.),PFL3|(3.),PF3P|(4.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:POWER_A:SL1|(1.),SL2|(2.),SL3|(3.),S3P|(4.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELDPOWER_R:PL1|(1.),PL2|(2.),PL3|(3.),P3P|(4.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1.-3. THD of voltage in %.2f</t>
+  </si>
+  <si>
+    <t>1.-3. THD of current in %.2f</t>
+  </si>
+  <si>
+    <t>1.-3. Current in %.2f</t>
+  </si>
+  <si>
+    <t>get computed power factor</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD:STOP_ANALYZE:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:WELD:ANALYZE_STOPPED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MAINS ANALYZW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WELD measurement</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2967,7 +3822,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3122,6 +3977,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3129,7 +3993,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3279,6 +4143,14 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -4108,7 +4980,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E25"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4403,12 +5275,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
@@ -4417,6 +5283,12 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5531,17 +6403,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5549,15 +6421,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="41" width="60.7109375" customWidth="1"/>
+    <col min="1" max="4" width="60.7109375" customWidth="1"/>
+    <col min="5" max="5" width="145.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="41" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -5718,10 +6593,10 @@
         <v>452</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="64"/>
@@ -5758,27 +6633,27 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B5" s="64" t="s">
         <v>453</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="64" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="64" t="s">
         <v>454</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J5" s="64"/>
       <c r="K5" s="64"/>
@@ -5817,11 +6692,11 @@
       <c r="A6" s="71"/>
       <c r="B6" s="64"/>
       <c r="C6" s="73" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
@@ -5860,17 +6735,17 @@
       <c r="AN6" s="64"/>
       <c r="AO6" s="64"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
-        <v>640</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="73" t="s">
-        <v>641</v>
-      </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64" t="s">
-        <v>639</v>
+    <row r="7" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="87" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="86" t="s">
+        <v>638</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85" t="s">
+        <v>636</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="64"/>
@@ -5909,17 +6784,17 @@
       <c r="AN7" s="64"/>
       <c r="AO7" s="64"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B8" s="64"/>
       <c r="C8" s="73" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="64" t="s">
@@ -6028,33 +6903,33 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="73" t="s">
-        <v>606</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>605</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>528</v>
+    <row r="9" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="86" t="s">
+        <v>603</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>602</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>526</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="64" t="s">
         <v>490</v>
       </c>
       <c r="H9" s="64" t="s">
+        <v>527</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="J9" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="K9" s="64" t="s">
         <v>530</v>
-      </c>
-      <c r="J9" s="64" t="s">
-        <v>531</v>
-      </c>
-      <c r="K9" s="64" t="s">
-        <v>532</v>
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="64"/>
@@ -6087,33 +6962,33 @@
       <c r="AN9" s="64"/>
       <c r="AO9" s="64"/>
     </row>
-    <row r="10" spans="1:41" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A10" s="66" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="73" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="64" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64" t="s">
         <v>491</v>
       </c>
       <c r="H10" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="J10" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="K10" s="64" t="s">
         <v>535</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>536</v>
-      </c>
-      <c r="K10" s="64" t="s">
-        <v>537</v>
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="64"/>
@@ -6146,39 +7021,39 @@
       <c r="AN10" s="64"/>
       <c r="AO10" s="64"/>
     </row>
-    <row r="11" spans="1:41" ht="21" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="73" t="s">
-        <v>607</v>
-      </c>
-      <c r="D11" s="64" t="s">
+    <row r="11" spans="1:41" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="84"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="86" t="s">
+        <v>604</v>
+      </c>
+      <c r="D11" s="85" t="s">
         <v>492</v>
       </c>
-      <c r="E11" s="64" t="s">
-        <v>538</v>
+      <c r="E11" s="85" t="s">
+        <v>536</v>
       </c>
       <c r="F11" s="64"/>
       <c r="G11" s="64" t="s">
         <v>493</v>
       </c>
       <c r="H11" s="64" t="s">
+        <v>537</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>538</v>
+      </c>
+      <c r="J11" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="K11" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="J11" s="64" t="s">
+      <c r="L11" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="M11" s="64" t="s">
         <v>542</v>
-      </c>
-      <c r="L11" s="64" t="s">
-        <v>543</v>
-      </c>
-      <c r="M11" s="64" t="s">
-        <v>544</v>
       </c>
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
@@ -6209,36 +7084,36 @@
       <c r="AN11" s="64"/>
       <c r="AO11" s="64"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="73" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="64" t="s">
         <v>494</v>
       </c>
       <c r="H12" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>545</v>
+      </c>
+      <c r="J12" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="K12" s="64" t="s">
+        <v>524</v>
+      </c>
+      <c r="L12" s="64" t="s">
         <v>547</v>
-      </c>
-      <c r="J12" s="64" t="s">
-        <v>548</v>
-      </c>
-      <c r="K12" s="64" t="s">
-        <v>526</v>
-      </c>
-      <c r="L12" s="64" t="s">
-        <v>549</v>
       </c>
       <c r="M12" s="64"/>
       <c r="N12" s="64"/>
@@ -6274,23 +7149,23 @@
       <c r="A13" s="71"/>
       <c r="B13" s="64"/>
       <c r="C13" s="73" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D13" s="64" t="s">
         <v>495</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F13" s="64"/>
       <c r="G13" s="64" t="s">
         <v>496</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
@@ -6327,37 +7202,37 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B14" s="64"/>
       <c r="C14" s="73" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D14" s="64"/>
       <c r="E14" s="64" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F14" s="64"/>
       <c r="G14" s="64" t="s">
         <v>497</v>
       </c>
       <c r="H14" s="64" t="s">
+        <v>552</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="J14" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="I14" s="64" t="s">
+      <c r="K14" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="L14" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="M14" s="64" t="s">
         <v>557</v>
-      </c>
-      <c r="L14" s="64" t="s">
-        <v>558</v>
-      </c>
-      <c r="M14" s="64" t="s">
-        <v>559</v>
       </c>
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
@@ -6392,26 +7267,26 @@
       <c r="A15" s="71"/>
       <c r="B15" s="64"/>
       <c r="C15" s="73" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D15" s="64" t="s">
         <v>498</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="64" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H15" s="64" t="s">
+        <v>617</v>
+      </c>
+      <c r="I15" s="64" t="s">
         <v>620</v>
       </c>
-      <c r="I15" s="64" t="s">
-        <v>623</v>
-      </c>
       <c r="J15" s="64" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L15" s="64"/>
       <c r="M15" s="64"/>
@@ -6446,25 +7321,25 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B16" s="64"/>
       <c r="C16" s="73" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D16" s="64"/>
       <c r="E16" s="64" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F16" s="64"/>
       <c r="G16" t="s">
-        <v>626</v>
+        <v>681</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J16" s="64"/>
       <c r="K16" s="64"/>
@@ -6499,22 +7374,28 @@
       <c r="AN16" s="64"/>
       <c r="AO16" s="64"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="73" t="s">
-        <v>614</v>
-      </c>
-      <c r="D17" s="64" t="s">
+    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="84"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86" t="s">
+        <v>611</v>
+      </c>
+      <c r="D17" s="85" t="s">
         <v>499</v>
       </c>
-      <c r="E17" s="64" t="s">
-        <v>562</v>
+      <c r="E17" s="85" t="s">
+        <v>560</v>
       </c>
       <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="G17" s="64" t="s">
+        <v>680</v>
+      </c>
+      <c r="H17" s="64" t="s">
+        <v>683</v>
+      </c>
+      <c r="I17" s="64" t="s">
+        <v>682</v>
+      </c>
       <c r="J17" s="64"/>
       <c r="K17" s="64"/>
       <c r="L17" s="64"/>
@@ -6548,19 +7429,19 @@
       <c r="AN17" s="64"/>
       <c r="AO17" s="64"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B18" s="64" t="s">
         <v>453</v>
       </c>
       <c r="C18" s="73" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="64" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="64"/>
@@ -6601,15 +7482,15 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="66" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="73" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
@@ -6650,7 +7531,7 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
-        <v>500</v>
+        <v>673</v>
       </c>
       <c r="B20" s="82"/>
       <c r="C20" s="82"/>
@@ -6667,15 +7548,15 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="65" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B21" s="64"/>
       <c r="C21" s="74" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D21" s="64"/>
       <c r="E21" s="64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="64"/>
@@ -6688,15 +7569,15 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B22" s="64"/>
       <c r="C22" s="74" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D22" s="64"/>
       <c r="E22" s="64" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="64"/>
@@ -6709,19 +7590,19 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B23" s="64" t="s">
+        <v>502</v>
+      </c>
+      <c r="C23" s="74" t="s">
+        <v>592</v>
+      </c>
+      <c r="D23" s="71" t="s">
         <v>503</v>
       </c>
-      <c r="C23" s="74" t="s">
-        <v>595</v>
-      </c>
-      <c r="D23" s="71" t="s">
+      <c r="E23" s="64" t="s">
         <v>504</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>505</v>
       </c>
       <c r="F23" s="64"/>
       <c r="G23" s="64"/>
@@ -6734,15 +7615,15 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B24" s="64"/>
       <c r="C24" s="74" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="64" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F24" s="64"/>
       <c r="G24" s="64"/>
@@ -6755,15 +7636,15 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B25" s="64"/>
       <c r="C25" s="74" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D25" s="71"/>
       <c r="E25" s="64" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F25" s="64"/>
       <c r="G25" s="64"/>
@@ -6776,19 +7657,19 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B26" s="64" t="s">
+        <v>507</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>591</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>503</v>
+      </c>
+      <c r="E26" s="64" t="s">
         <v>508</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>594</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>504</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>509</v>
       </c>
       <c r="F26" s="64"/>
       <c r="G26" s="64"/>
@@ -6801,15 +7682,15 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B27" s="64"/>
       <c r="C27" s="74" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D27" s="64"/>
       <c r="E27" s="64" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F27" s="64"/>
       <c r="G27" s="64"/>
@@ -6824,13 +7705,13 @@
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D29" s="64" t="s">
+        <v>510</v>
+      </c>
+      <c r="E29" s="64" t="s">
         <v>511</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>512</v>
       </c>
       <c r="F29" s="64"/>
       <c r="G29" s="64"/>
@@ -6843,7 +7724,7 @@
     </row>
     <row r="31" spans="1:41" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="78" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B31" s="78"/>
       <c r="C31" s="78"/>
@@ -6892,17 +7773,17 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="66" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B34" s="64" t="s">
         <v>453</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D34" s="64"/>
       <c r="E34" s="64" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F34" s="64"/>
       <c r="G34" s="64"/>
@@ -6913,15 +7794,15 @@
       <c r="L34" s="64"/>
       <c r="M34" s="64"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="73" t="s">
-        <v>644</v>
-      </c>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64" t="s">
-        <v>645</v>
+    <row r="35" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="84"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86" t="s">
+        <v>641</v>
+      </c>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85" t="s">
+        <v>642</v>
       </c>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -6932,17 +7813,17 @@
       <c r="L35" s="64"/>
       <c r="M35" s="64"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="66" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B36" s="64"/>
       <c r="C36" s="73" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D36" s="64"/>
       <c r="E36" s="64" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F36" s="64"/>
       <c r="G36" s="64"/>
@@ -6953,125 +7834,125 @@
       <c r="L36" s="64"/>
       <c r="M36" s="64"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A37" s="66" t="s">
-        <v>580</v>
-      </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="73" t="s">
-        <v>601</v>
-      </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="87" t="s">
+        <v>577</v>
+      </c>
+      <c r="B37" s="85"/>
+      <c r="C37" s="86" t="s">
+        <v>598</v>
+      </c>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="66" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B38" s="64"/>
       <c r="C38" s="73" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D38" s="64"/>
       <c r="E38" s="64" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="64"/>
       <c r="B39" s="64"/>
       <c r="C39" s="73" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D39" s="64" t="s">
         <v>495</v>
       </c>
       <c r="E39" s="64" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="66" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="73" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D40" s="64"/>
       <c r="E40" s="64" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="73" t="s">
-        <v>612</v>
-      </c>
-      <c r="D41" s="64" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="86" t="s">
+        <v>609</v>
+      </c>
+      <c r="D41" s="85" t="s">
         <v>498</v>
       </c>
-      <c r="E41" s="64" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E41" s="85" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="66" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C42" s="73" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D42" s="64"/>
       <c r="E42" s="64" t="s">
-        <v>517</v>
+        <v>721</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="66" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B43" s="64"/>
       <c r="C43" s="73" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D43" s="64"/>
       <c r="E43" s="64" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
         <v>649</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="73" t="s">
-        <v>650</v>
-      </c>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="87" t="s">
+        <v>646</v>
+      </c>
+      <c r="B44" s="85"/>
+      <c r="C44" s="86" t="s">
+        <v>647</v>
+      </c>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A45" s="66" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B45" s="64" t="s">
         <v>453</v>
       </c>
       <c r="C45" s="73" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
       <c r="D45" s="64"/>
       <c r="E45" s="64" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F45" s="64"/>
       <c r="G45" s="64"/>
@@ -7112,23 +7993,26 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="66" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C46" s="73" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E46" s="64" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C49" s="73" t="s">
-        <v>615</v>
-      </c>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="71"/>
     </row>
     <row r="51" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="78" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="B51" s="78"/>
       <c r="C51" s="78"/>
@@ -7161,70 +8045,622 @@
       <c r="M52" s="70"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="B53" t="s">
-        <v>618</v>
-      </c>
-      <c r="C53" s="73" t="s">
+      <c r="A53" s="72"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="70"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="70"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="66" t="s">
+        <v>651</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>669</v>
+      </c>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64" t="s">
+        <v>664</v>
+      </c>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
+      <c r="L54" s="64"/>
+      <c r="M54" s="64"/>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="84"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="86" t="s">
+        <v>665</v>
+      </c>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85" t="s">
+        <v>666</v>
+      </c>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="64"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="66" t="s">
+        <v>652</v>
+      </c>
+      <c r="B56" s="64"/>
+      <c r="C56" s="73" t="s">
+        <v>667</v>
+      </c>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64" t="s">
+        <v>714</v>
+      </c>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="87" t="s">
+        <v>668</v>
+      </c>
+      <c r="B57" s="85"/>
+      <c r="C57" s="86" t="s">
+        <v>653</v>
+      </c>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="66" t="s">
+        <v>654</v>
+      </c>
+      <c r="B58" s="64"/>
+      <c r="C58" s="73" t="s">
+        <v>655</v>
+      </c>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="64"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="73" t="s">
+        <v>656</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>495</v>
+      </c>
+      <c r="E59" s="64" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="66" t="s">
+        <v>657</v>
+      </c>
+      <c r="B60" s="64"/>
+      <c r="C60" s="73" t="s">
+        <v>658</v>
+      </c>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="86" t="s">
+        <v>659</v>
+      </c>
+      <c r="D61" s="85" t="s">
+        <v>498</v>
+      </c>
+      <c r="E61" s="85" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="66" t="s">
+        <v>685</v>
+      </c>
+      <c r="B62" s="64" t="s">
+        <v>684</v>
+      </c>
+      <c r="C62" s="73" t="s">
+        <v>674</v>
+      </c>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="73" t="s">
+        <v>675</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>495</v>
+      </c>
+      <c r="E63" s="64" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="87" t="s">
+        <v>692</v>
+      </c>
+      <c r="B64" s="85"/>
+      <c r="C64" s="86" t="s">
+        <v>693</v>
+      </c>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="66" t="s">
+        <v>686</v>
+      </c>
+      <c r="B65" s="64" t="s">
+        <v>684</v>
+      </c>
+      <c r="C65" s="73" t="s">
+        <v>676</v>
+      </c>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="73" t="s">
+        <v>678</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>495</v>
+      </c>
+      <c r="E66" s="64" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="87" t="s">
+        <v>688</v>
+      </c>
+      <c r="B67" s="85"/>
+      <c r="C67" s="86" t="s">
+        <v>689</v>
+      </c>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="66" t="s">
+        <v>687</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>684</v>
+      </c>
+      <c r="C68" s="73" t="s">
+        <v>677</v>
+      </c>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="73" t="s">
+        <v>679</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>495</v>
+      </c>
+      <c r="E69" s="64" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="87" t="s">
+        <v>690</v>
+      </c>
+      <c r="B70" s="85"/>
+      <c r="C70" s="86" t="s">
+        <v>691</v>
+      </c>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66" t="s">
+        <v>694</v>
+      </c>
+      <c r="B71" s="64"/>
+      <c r="C71" s="73" t="s">
+        <v>695</v>
+      </c>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="87" t="s">
+        <v>697</v>
+      </c>
+      <c r="B72" s="85"/>
+      <c r="C72" s="86" t="s">
+        <v>698</v>
+      </c>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="66" t="s">
+        <v>715</v>
+      </c>
+      <c r="B73" s="64"/>
+      <c r="C73" s="73" t="s">
+        <v>716</v>
+      </c>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="87" t="s">
+        <v>717</v>
+      </c>
+      <c r="B74" s="85"/>
+      <c r="C74" s="86" t="s">
+        <v>718</v>
+      </c>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="66" t="s">
+        <v>723</v>
+      </c>
+      <c r="B75" s="64"/>
+      <c r="C75" s="73" t="s">
+        <v>724</v>
+      </c>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="66" t="s">
+        <v>722</v>
+      </c>
+      <c r="B76" s="64"/>
+      <c r="C76" s="73" t="s">
+        <v>729</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>727</v>
+      </c>
+      <c r="E76" s="64" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="66" t="s">
+        <v>728</v>
+      </c>
+      <c r="B77" s="64"/>
+      <c r="C77" s="73" t="s">
+        <v>731</v>
+      </c>
+      <c r="D77" s="64" t="s">
+        <v>750</v>
+      </c>
+      <c r="E77" s="64" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="66" t="s">
+        <v>732</v>
+      </c>
+      <c r="B78" s="64"/>
+      <c r="C78" s="73" t="s">
+        <v>735</v>
+      </c>
+      <c r="D78" s="64" t="s">
+        <v>749</v>
+      </c>
+      <c r="E78" s="64" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="66" t="s">
+        <v>733</v>
+      </c>
+      <c r="B79" s="64"/>
+      <c r="C79" s="73" t="s">
+        <v>734</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>748</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="66" t="s">
+        <v>738</v>
+      </c>
+      <c r="B80" s="64"/>
+      <c r="C80" s="73" t="s">
+        <v>747</v>
+      </c>
+      <c r="D80" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="E80" s="64" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A81" s="66" t="s">
+        <v>743</v>
+      </c>
+      <c r="B81" s="64"/>
+      <c r="C81" s="73" t="s">
+        <v>746</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="E81" s="64" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A82" s="89" t="s">
+        <v>740</v>
+      </c>
+      <c r="B82" s="90"/>
+      <c r="C82" s="83" t="s">
+        <v>745</v>
+      </c>
+      <c r="D82" s="90" t="s">
+        <v>744</v>
+      </c>
+      <c r="E82" s="90" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="87" t="s">
+        <v>752</v>
+      </c>
+      <c r="B83" s="85"/>
+      <c r="C83" s="86" t="s">
+        <v>753</v>
+      </c>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="66" t="s">
+        <v>660</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C84" s="73" t="s">
+        <v>671</v>
+      </c>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64" t="s">
+        <v>634</v>
+      </c>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="64"/>
+      <c r="K84" s="64"/>
+      <c r="L84" s="64"/>
+      <c r="M84" s="64"/>
+      <c r="N84" s="64"/>
+      <c r="O84" s="64"/>
+      <c r="P84" s="64"/>
+      <c r="Q84" s="64"/>
+      <c r="R84" s="64"/>
+      <c r="S84" s="64"/>
+      <c r="T84" s="64"/>
+      <c r="U84" s="64"/>
+      <c r="V84" s="64"/>
+      <c r="W84" s="64"/>
+      <c r="X84" s="64"/>
+      <c r="Y84" s="64"/>
+      <c r="Z84" s="64"/>
+      <c r="AA84" s="64"/>
+      <c r="AB84" s="64"/>
+      <c r="AC84" s="64"/>
+      <c r="AD84" s="64"/>
+      <c r="AE84" s="64"/>
+      <c r="AF84" s="64"/>
+      <c r="AG84" s="64"/>
+      <c r="AH84" s="64"/>
+      <c r="AI84" s="64"/>
+      <c r="AJ84" s="64"/>
+      <c r="AK84" s="64"/>
+      <c r="AL84" s="64"/>
+      <c r="AM84" s="64"/>
+      <c r="AN84" s="64"/>
+      <c r="AO84" s="64"/>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A85" s="66" t="s">
+        <v>661</v>
+      </c>
+      <c r="C85" s="73" t="s">
+        <v>662</v>
+      </c>
+      <c r="E85" s="64" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C88" s="73" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" ht="21" x14ac:dyDescent="0.25">
+      <c r="A89" s="78" t="s">
+        <v>613</v>
+      </c>
+      <c r="B89" s="78"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="70"/>
+      <c r="H89" s="70"/>
+      <c r="I89" s="70"/>
+      <c r="J89" s="70"/>
+      <c r="K89" s="70"/>
+      <c r="L89" s="70"/>
+      <c r="M89" s="70"/>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A90" s="79" t="s">
+        <v>451</v>
+      </c>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="70"/>
+      <c r="H90" s="70"/>
+      <c r="I90" s="70"/>
+      <c r="J90" s="70"/>
+      <c r="K90" s="70"/>
+      <c r="L90" s="70"/>
+      <c r="M90" s="70"/>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A91" s="66" t="s">
+        <v>614</v>
+      </c>
+      <c r="B91" t="s">
+        <v>615</v>
+      </c>
+      <c r="C91" s="73" t="s">
+        <v>619</v>
+      </c>
+      <c r="D91" t="s">
+        <v>615</v>
+      </c>
+      <c r="E91" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="C92" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D53" t="s">
-        <v>618</v>
-      </c>
-      <c r="E53" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C54" s="73" t="s">
-        <v>625</v>
-      </c>
-      <c r="D54" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C62" s="69" t="s">
+      <c r="D92" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C63" s="69" t="s">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="69" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="69" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="69" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C64" s="69" t="s">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="69" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" s="69" t="s">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="69" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" s="69" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67" s="69" t="s">
-        <v>522</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A51:E51"/>
+  <mergeCells count="10">
+    <mergeCell ref="A90:E90"/>
     <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A89:E89"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A51:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8180,8 +9616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8867,11 +10303,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A3:E3"/>
@@ -8879,6 +10310,11 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9725,7 +11161,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10317,11 +11753,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A64:E64"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A60:E60"/>
     <mergeCell ref="A1:E1"/>
@@ -10329,6 +11760,11 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A64:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Protokol MT310 definition.xlsx
+++ b/Protokol MT310 definition.xlsx
@@ -3548,9 +3548,6 @@
     <t>1.-3. THD of current in %.2f</t>
   </si>
   <si>
-    <t>1.-3. Current in %.2f</t>
-  </si>
-  <si>
     <t>get computed power factor</t>
   </si>
   <si>
@@ -3586,6 +3583,9 @@
       </rPr>
       <t>WELD measurement</t>
     </r>
+  </si>
+  <si>
+    <t>1.-3. Current in %.3f</t>
   </si>
 </sst>
 </file>
@@ -4119,6 +4119,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4128,10 +4136,10 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4143,14 +4151,6 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -4833,21 +4833,21 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="83"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
@@ -4989,76 +4989,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="83" t="s">
         <v>364</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="83" t="s">
         <v>365</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="83" t="s">
         <v>406</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="83" t="s">
         <v>407</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="83" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5128,58 +5128,58 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="83" t="s">
         <v>372</v>
       </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="83" t="s">
         <v>375</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="83" t="s">
         <v>374</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="83" t="s">
         <v>373</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="83" t="s">
         <v>376</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5275,6 +5275,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
@@ -5283,12 +5289,6 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5308,58 +5308,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="83" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="83" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="83" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="83" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5441,40 +5441,40 @@
       <c r="E18" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75" t="s">
+      <c r="A24" s="83" t="s">
         <v>391</v>
       </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="83" t="s">
         <v>392</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="83" t="s">
         <v>393</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5574,58 +5574,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="83" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="83" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="83" t="s">
         <v>396</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>397</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="83" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5761,40 +5761,40 @@
       <c r="E29" s="33"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="83" t="s">
         <v>400</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="83" t="s">
         <v>401</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6074,58 +6074,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="83" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="83" t="s">
         <v>430</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="83" t="s">
         <v>431</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>433</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="83" t="s">
         <v>432</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6207,49 +6207,49 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="83" t="s">
         <v>440</v>
       </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="83" t="s">
         <v>441</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="75" t="s">
+      <c r="A52" s="83" t="s">
         <v>443</v>
       </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="75" t="s">
+      <c r="A53" s="83" t="s">
         <v>442</v>
       </c>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6403,17 +6403,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A52:E52"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A52:E52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6423,8 +6423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6455,14 +6455,14 @@
       <c r="G1" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="88" t="s">
         <v>449</v>
       </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
       <c r="N1" s="64"/>
       <c r="O1" s="64"/>
       <c r="P1" s="64"/>
@@ -6493,13 +6493,13 @@
       <c r="AO1" s="64"/>
     </row>
     <row r="2" spans="1:41" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="87" t="s">
         <v>450</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
       <c r="F2" s="64"/>
       <c r="G2" s="70"/>
       <c r="H2" s="70"/>
@@ -6538,13 +6538,13 @@
       <c r="AO2" s="64"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="64"/>
       <c r="G3" s="70"/>
       <c r="H3" s="70"/>
@@ -6736,15 +6736,15 @@
       <c r="AO6" s="64"/>
     </row>
     <row r="7" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="79" t="s">
         <v>637</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86" t="s">
+      <c r="B7" s="77"/>
+      <c r="C7" s="78" t="s">
         <v>638</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85" t="s">
+      <c r="D7" s="77"/>
+      <c r="E7" s="77" t="s">
         <v>636</v>
       </c>
       <c r="F7" s="64"/>
@@ -6904,15 +6904,15 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78" t="s">
         <v>603</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="77" t="s">
         <v>602</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="77" t="s">
         <v>526</v>
       </c>
       <c r="F9" s="64"/>
@@ -7022,15 +7022,15 @@
       <c r="AO10" s="64"/>
     </row>
     <row r="11" spans="1:41" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="84"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="86" t="s">
+      <c r="A11" s="76"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="78" t="s">
         <v>604</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="77" t="s">
         <v>492</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="77" t="s">
         <v>536</v>
       </c>
       <c r="F11" s="64"/>
@@ -7375,15 +7375,15 @@
       <c r="AO16" s="64"/>
     </row>
     <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78" t="s">
         <v>611</v>
       </c>
-      <c r="D17" s="85" t="s">
+      <c r="D17" s="77" t="s">
         <v>499</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="77" t="s">
         <v>560</v>
       </c>
       <c r="F17" s="64"/>
@@ -7530,13 +7530,13 @@
       <c r="AO19" s="64"/>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="89" t="s">
         <v>673</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="64"/>
       <c r="G20" s="64"/>
       <c r="H20" s="64"/>
@@ -7723,13 +7723,13 @@
       <c r="M29" s="64"/>
     </row>
     <row r="31" spans="1:41" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="87" t="s">
         <v>512</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="64"/>
       <c r="G31" s="70"/>
       <c r="H31" s="70"/>
@@ -7740,13 +7740,13 @@
       <c r="M31" s="70"/>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
       <c r="F32" s="64"/>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
@@ -7795,13 +7795,13 @@
       <c r="M34" s="64"/>
     </row>
     <row r="35" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="84"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86" t="s">
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78" t="s">
         <v>641</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85" t="s">
+      <c r="D35" s="77"/>
+      <c r="E35" s="77" t="s">
         <v>642</v>
       </c>
       <c r="F35" s="64"/>
@@ -7835,15 +7835,15 @@
       <c r="M36" s="64"/>
     </row>
     <row r="37" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="87" t="s">
+      <c r="A37" s="79" t="s">
         <v>577</v>
       </c>
-      <c r="B37" s="85"/>
-      <c r="C37" s="86" t="s">
+      <c r="B37" s="77"/>
+      <c r="C37" s="78" t="s">
         <v>598</v>
       </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85" t="s">
+      <c r="D37" s="77"/>
+      <c r="E37" s="77" t="s">
         <v>515</v>
       </c>
     </row>
@@ -7887,15 +7887,15 @@
       </c>
     </row>
     <row r="41" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="86" t="s">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78" t="s">
         <v>609</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D41" s="77" t="s">
         <v>498</v>
       </c>
-      <c r="E41" s="85" t="s">
+      <c r="E41" s="77" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7928,15 +7928,15 @@
       </c>
     </row>
     <row r="44" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="79" t="s">
         <v>646</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="86" t="s">
+      <c r="B44" s="77"/>
+      <c r="C44" s="78" t="s">
         <v>647</v>
       </c>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85" t="s">
+      <c r="D44" s="77"/>
+      <c r="E44" s="77" t="s">
         <v>648</v>
       </c>
     </row>
@@ -8011,13 +8011,13 @@
       <c r="C50" s="71"/>
     </row>
     <row r="51" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="87" t="s">
         <v>650</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
       <c r="F51" s="64"/>
       <c r="G51" s="70"/>
       <c r="H51" s="70"/>
@@ -8028,13 +8028,13 @@
       <c r="M51" s="70"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="79" t="s">
+      <c r="A52" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
       <c r="F52" s="64"/>
       <c r="G52" s="70"/>
       <c r="H52" s="70"/>
@@ -8083,13 +8083,13 @@
       <c r="M54" s="64"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="84"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="86" t="s">
+      <c r="A55" s="76"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78" t="s">
         <v>665</v>
       </c>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85" t="s">
+      <c r="D55" s="77"/>
+      <c r="E55" s="77" t="s">
         <v>666</v>
       </c>
       <c r="F55" s="64"/>
@@ -8123,15 +8123,15 @@
       <c r="M56" s="64"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="87" t="s">
+      <c r="A57" s="79" t="s">
         <v>668</v>
       </c>
-      <c r="B57" s="85"/>
-      <c r="C57" s="86" t="s">
+      <c r="B57" s="77"/>
+      <c r="C57" s="78" t="s">
         <v>653</v>
       </c>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85" t="s">
+      <c r="D57" s="77"/>
+      <c r="E57" s="77" t="s">
         <v>713</v>
       </c>
     </row>
@@ -8175,15 +8175,15 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="86" t="s">
+      <c r="A61" s="77"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78" t="s">
         <v>659</v>
       </c>
-      <c r="D61" s="85" t="s">
+      <c r="D61" s="77" t="s">
         <v>498</v>
       </c>
-      <c r="E61" s="85" t="s">
+      <c r="E61" s="77" t="s">
         <v>709</v>
       </c>
     </row>
@@ -8216,15 +8216,15 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="87" t="s">
+      <c r="A64" s="79" t="s">
         <v>692</v>
       </c>
-      <c r="B64" s="85"/>
-      <c r="C64" s="86" t="s">
+      <c r="B64" s="77"/>
+      <c r="C64" s="78" t="s">
         <v>693</v>
       </c>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85" t="s">
+      <c r="D64" s="77"/>
+      <c r="E64" s="77" t="s">
         <v>706</v>
       </c>
     </row>
@@ -8257,15 +8257,15 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="87" t="s">
+      <c r="A67" s="79" t="s">
         <v>688</v>
       </c>
-      <c r="B67" s="85"/>
-      <c r="C67" s="86" t="s">
+      <c r="B67" s="77"/>
+      <c r="C67" s="78" t="s">
         <v>689</v>
       </c>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85" t="s">
+      <c r="D67" s="77"/>
+      <c r="E67" s="77" t="s">
         <v>703</v>
       </c>
     </row>
@@ -8298,15 +8298,15 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="87" t="s">
+      <c r="A70" s="79" t="s">
         <v>690</v>
       </c>
-      <c r="B70" s="85"/>
-      <c r="C70" s="86" t="s">
+      <c r="B70" s="77"/>
+      <c r="C70" s="78" t="s">
         <v>691</v>
       </c>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85" t="s">
+      <c r="D70" s="77"/>
+      <c r="E70" s="77" t="s">
         <v>700</v>
       </c>
     </row>
@@ -8324,15 +8324,15 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="87" t="s">
+      <c r="A72" s="79" t="s">
         <v>697</v>
       </c>
-      <c r="B72" s="85"/>
-      <c r="C72" s="86" t="s">
+      <c r="B72" s="77"/>
+      <c r="C72" s="78" t="s">
         <v>698</v>
       </c>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85" t="s">
+      <c r="D72" s="77"/>
+      <c r="E72" s="77" t="s">
         <v>699</v>
       </c>
     </row>
@@ -8350,15 +8350,15 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="79" t="s">
         <v>717</v>
       </c>
-      <c r="B74" s="85"/>
-      <c r="C74" s="86" t="s">
+      <c r="B74" s="77"/>
+      <c r="C74" s="78" t="s">
         <v>718</v>
       </c>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85" t="s">
+      <c r="D74" s="77"/>
+      <c r="E74" s="77" t="s">
         <v>720</v>
       </c>
     </row>
@@ -8399,7 +8399,7 @@
         <v>731</v>
       </c>
       <c r="D77" s="64" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="E77" s="64" t="s">
         <v>730</v>
@@ -8466,31 +8466,31 @@
       </c>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A82" s="89" t="s">
+      <c r="A82" s="81" t="s">
         <v>740</v>
       </c>
-      <c r="B82" s="90"/>
-      <c r="C82" s="83" t="s">
+      <c r="B82" s="82"/>
+      <c r="C82" s="75" t="s">
         <v>745</v>
       </c>
-      <c r="D82" s="90" t="s">
+      <c r="D82" s="82" t="s">
         <v>744</v>
       </c>
-      <c r="E82" s="90" t="s">
+      <c r="E82" s="82" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="79" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="83" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="87" t="s">
+      <c r="B83" s="77"/>
+      <c r="C83" s="78" t="s">
         <v>752</v>
       </c>
-      <c r="B83" s="85"/>
-      <c r="C83" s="86" t="s">
+      <c r="D83" s="77"/>
+      <c r="E83" s="77" t="s">
         <v>753</v>
-      </c>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="84" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8561,13 +8561,13 @@
       </c>
     </row>
     <row r="89" spans="1:41" ht="21" x14ac:dyDescent="0.25">
-      <c r="A89" s="78" t="s">
+      <c r="A89" s="87" t="s">
         <v>613</v>
       </c>
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
       <c r="F89" s="64"/>
       <c r="G89" s="70"/>
       <c r="H89" s="70"/>
@@ -8578,13 +8578,13 @@
       <c r="M89" s="70"/>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A90" s="79" t="s">
+      <c r="A90" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="B90" s="79"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="79"/>
+      <c r="B90" s="86"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="86"/>
+      <c r="E90" s="86"/>
       <c r="F90" s="64"/>
       <c r="G90" s="70"/>
       <c r="H90" s="70"/>
@@ -9626,22 +9626,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
@@ -9651,13 +9651,13 @@
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="83" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
@@ -9667,13 +9667,13 @@
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="83" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
@@ -9683,13 +9683,13 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>348</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
@@ -9699,13 +9699,13 @@
       <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="83" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -10079,58 +10079,58 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="77" t="s">
+      <c r="A45" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="75" t="s">
+      <c r="A47" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="75" t="s">
+      <c r="A48" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="75" t="s">
+      <c r="A49" s="83" t="s">
         <v>344</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="75" t="s">
+      <c r="A50" s="83" t="s">
         <v>345</v>
       </c>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="75" t="s">
+      <c r="A51" s="83" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="75"/>
-      <c r="E51" s="75"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10303,6 +10303,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A3:E3"/>
@@ -10310,11 +10315,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10337,58 +10337,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="83" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="83" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -10528,58 +10528,58 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="83" t="s">
         <v>342</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10728,58 +10728,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="83" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -10984,58 +10984,58 @@
       <c r="K21" s="33"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="83" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="75"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="83" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="83" t="s">
         <v>329</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="83" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11170,58 +11170,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="83" t="s">
         <v>370</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="83" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="83" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11618,58 +11618,58 @@
       <c r="G55" s="33"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="77" t="s">
+      <c r="A58" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="75" t="s">
+      <c r="A60" s="83" t="s">
         <v>306</v>
       </c>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
-      <c r="D60" s="75"/>
-      <c r="E60" s="75"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="75" t="s">
+      <c r="A61" s="83" t="s">
         <v>323</v>
       </c>
-      <c r="B61" s="75"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="75"/>
-      <c r="E61" s="75"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="83"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="B62" s="75"/>
-      <c r="C62" s="75"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="75"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="83"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="75" t="s">
+      <c r="A63" s="83" t="s">
         <v>325</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
+      <c r="E63" s="83"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="75" t="s">
+      <c r="A64" s="83" t="s">
         <v>326</v>
       </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="75"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="83"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11753,6 +11753,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A64:E64"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A60:E60"/>
     <mergeCell ref="A1:E1"/>
@@ -11760,11 +11765,6 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A64:E64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11784,58 +11784,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="83" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="83" t="s">
         <v>368</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="83" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="83" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12037,58 +12037,58 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="83" t="s">
         <v>316</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="83" t="s">
         <v>317</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="83" t="s">
         <v>318</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="83" t="s">
         <v>319</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="83" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Protokol MT310 definition.xlsx
+++ b/Protokol MT310 definition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="685" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="685" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="UKAZI S STRANI PROCESORSKE" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="706">
   <si>
     <t>Command from MT310 to MERILNA PCB, MT-300-TFA, HV ADAPTER</t>
   </si>
@@ -1923,36 +1923,12 @@
     <t>1. Pass, 2. Riso phase to phase fault-s</t>
   </si>
   <si>
-    <t>Start RPE low current measurement</t>
-  </si>
-  <si>
     <t>Start RPE high current measurement</t>
   </si>
   <si>
-    <t>1. RPE in ohms %.2f</t>
-  </si>
-  <si>
     <t>1. Measured connection et.: "L1_L2"</t>
   </si>
   <si>
-    <t xml:space="preserve">Request RPE resistance. Parameter (1) just for info and simulation. </t>
-  </si>
-  <si>
-    <t>Stop RPE measurement</t>
-  </si>
-  <si>
-    <t>Start RPE measurement</t>
-  </si>
-  <si>
-    <t>1. RISO in Mohms %.3f</t>
-  </si>
-  <si>
-    <t>Request RPE resistance. Parameter (1) just for info and simulation.</t>
-  </si>
-  <si>
-    <t>Stop RISO measurement</t>
-  </si>
-  <si>
     <t>1. Phase system, 2. Position of L conductor, 3. Mains status</t>
   </si>
   <si>
@@ -1962,12 +1938,6 @@
     <t>MACHINES</t>
   </si>
   <si>
-    <t>init MACH test, runs mains test and return its result</t>
-  </si>
-  <si>
-    <t>start RPE 30A MACH measurement, when return command is transmitted everithing is set</t>
-  </si>
-  <si>
     <t>stop RPE 30A MACH measurement</t>
   </si>
   <si>
@@ -1996,6 +1966,921 @@
   </si>
   <si>
     <t>"N"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt Cord </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Correct wiring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> results. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <t>"OK"</t>
+  </si>
+  <si>
+    <t>"PE_DISC"</t>
+  </si>
+  <si>
+    <t>"N_DISC"</t>
+  </si>
+  <si>
+    <t>"WRONG_CON"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Continuity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CORD measurement</t>
+    </r>
+  </si>
+  <si>
+    <t>"L1-PE_F"</t>
+  </si>
+  <si>
+    <t>"L2-PE_F"</t>
+  </si>
+  <si>
+    <t>"L3-PE_F"</t>
+  </si>
+  <si>
+    <t>"N-PE_F"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt Cord </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Continuity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> results. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <t>"L1-N_F"</t>
+  </si>
+  <si>
+    <t>"L2-N_F"</t>
+  </si>
+  <si>
+    <t>"L3-N_F"</t>
+  </si>
+  <si>
+    <t>"L1-L3_F"</t>
+  </si>
+  <si>
+    <t>"L1-L2_F"</t>
+  </si>
+  <si>
+    <t>"L2-L3_F"</t>
+  </si>
+  <si>
+    <t>"L1"</t>
+  </si>
+  <si>
+    <t>"L2"</t>
+  </si>
+  <si>
+    <t>"L3"</t>
+  </si>
+  <si>
+    <t>"PE"</t>
+  </si>
+  <si>
+    <t>"PASS"</t>
+  </si>
+  <si>
+    <t>"FAIL"</t>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CORD measurement</t>
+    </r>
+  </si>
+  <si>
+    <t>"L1-PE"</t>
+  </si>
+  <si>
+    <t>"L2-PE"</t>
+  </si>
+  <si>
+    <t>"L3-PE"</t>
+  </si>
+  <si>
+    <t>"L1-N"</t>
+  </si>
+  <si>
+    <t>"L2-N"</t>
+  </si>
+  <si>
+    <t>"L3-N"</t>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phases to Phase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CORD measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt Cord Riso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phases to Phase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result (up to 6 fault conditions). When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MACH measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt MACH Riso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Pass 2. CW failures</t>
+  </si>
+  <si>
+    <t>&gt;AP:03:STATUS:MAINS:PHASE_S|(1.),L_POS|(2.),MAINS|(3.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP::::::0:000:#013#010</t>
+  </si>
+  <si>
+    <t>CONNECTION</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:COMMUN:CONNECT_REQUEST:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. Device</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>"MT-310"</t>
+  </si>
+  <si>
+    <t>"PAT"</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:COMMUN:CONNECTION_ESTABLED:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>"MT-300-TFA"</t>
+  </si>
+  <si>
+    <t>Connect request. Returns if all ok with Device (MT-300-TFA) , also returns mains status</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:COMMUN:CONNECTION_DENIED:(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. Connection denied</t>
+  </si>
+  <si>
+    <t>"ALREADY_CONNECTED"</t>
+  </si>
+  <si>
+    <t>"DIFF_DEVICE_CONNECTED"</t>
+  </si>
+  <si>
+    <t>sets cable phase number (mandatory only if changed from INIT function)</t>
+  </si>
+  <si>
+    <t>open input contactors at peak input voltage. Return when the contactors are opened (for info).</t>
+  </si>
+  <si>
+    <t>WELDING</t>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MACH measurement.  If ALL-PE is not completed jet, it is started implicitly.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cont/single</t>
+  </si>
+  <si>
+    <t>Connection denied</t>
+  </si>
+  <si>
+    <t>"CONT"</t>
+  </si>
+  <si>
+    <t>"SINGLE"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>U-NO-LOAD RMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement. When everithing is set started is returned</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>welding to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement. If measurement is set to continious started is returned when everithing is set and MT-300-TFA is not in command.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAINS to CLASS2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement. If measurement is set to continious started is returned when everithing is set and MT-300-TFA is not in command.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt WELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAINS to welding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MAINS to welding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WELD measurement. If measurement is set to continious started is returned when everithing is set and MT-300-TFA is not in command.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt WELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Riso Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement. If ALL-PE is not completed jet, it is started implicitly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt WELD </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">All Phases to PE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result. When return message is recieved, measurement has finished.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RPE 30A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> WELD measurement, when return command is transmitted everithing is set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">U-NO-LOAD PEAK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WELD measurement. When everithing is set started is returned</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">start </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MAINS ANALYZW </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WELD measurement</t>
+    </r>
+  </si>
+  <si>
+    <t>get measured voltage</t>
+  </si>
+  <si>
+    <t>1.-4. Voltage in %.2f</t>
+  </si>
+  <si>
+    <t>get measured current</t>
+  </si>
+  <si>
+    <t>get current THD, updated every 2s</t>
+  </si>
+  <si>
+    <t>get voltage THD, updated every 2s</t>
+  </si>
+  <si>
+    <t>1.-4. Power in %.1f</t>
+  </si>
+  <si>
+    <t>get computed real power</t>
+  </si>
+  <si>
+    <t>get computed apparent power</t>
+  </si>
+  <si>
+    <t>1.-4. Power factor in %.3f</t>
+  </si>
+  <si>
+    <t>1.-3. THD of voltage in %.2f</t>
+  </si>
+  <si>
+    <t>1.-3. THD of current in %.2f</t>
+  </si>
+  <si>
+    <t>get computed power factor</t>
+  </si>
+  <si>
+    <t>1.-3. Current in %.3f</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stop </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MAINS ANALYZE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WELD measurement</t>
+    </r>
+  </si>
+  <si>
+    <t>start MAINS ANALYZW MACH measurement</t>
+  </si>
+  <si>
+    <t>stop MAINS ANALYZE MACH measurement</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:RPE:VALUE:RESISTANCE|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. any function (ALL-PE, ONE-PE, CONT,…)</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:(1.):STOP:STD|CORD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:RISO:VALUE:RESISTANCE|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>get resistance, first result indicates that RPE is started</t>
+  </si>
+  <si>
+    <t>Start low current rpe measurement, when the measurement is started, first result is transmitted back</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:RPE:START:CURRENT|0.2:(1.):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:RPE:GET:RESULT:(1.):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. command only for simulation</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:RISO:START:VOLTAGE|500::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:RPE:START:CURRENT|25::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:RISO:GET:RESULT:(1):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>start long RISO measurement and transmitt first result</t>
+  </si>
+  <si>
+    <t>get measured result</t>
+  </si>
+  <si>
+    <t>returned RISO result</t>
+  </si>
+  <si>
+    <r>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CORD measurement. Only one time measurement. When return result is received the measurement in TFA is stopped</t>
+    </r>
+  </si>
+  <si>
+    <t>start short RISO measurement and transmitt first result</t>
+  </si>
+  <si>
+    <t>returned RISO result. When the result is received, measurement is stopped</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transmitt Cord Riso </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phases to PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished. Also RISO has to be stopped.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2022,1397 +2907,84 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>g for CORD measurement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt Cord </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Correct wiring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> results. When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <t>"OK"</t>
-  </si>
-  <si>
-    <t>"PE_DISC"</t>
-  </si>
-  <si>
-    <t>"N_DISC"</t>
-  </si>
-  <si>
-    <t>"WRONG_CON"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">start </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Continuity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CORD measurement</t>
-    </r>
-  </si>
-  <si>
-    <t>"L1-PE_F"</t>
-  </si>
-  <si>
-    <t>"L2-PE_F"</t>
-  </si>
-  <si>
-    <t>"L3-PE_F"</t>
-  </si>
-  <si>
-    <t>"N-PE_F"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt Cord </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Continuity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> results. When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <t>"L1-N_F"</t>
-  </si>
-  <si>
-    <t>"L2-N_F"</t>
-  </si>
-  <si>
-    <t>"L3-N_F"</t>
-  </si>
-  <si>
-    <t>"L1-L3_F"</t>
-  </si>
-  <si>
-    <t>"L1-L2_F"</t>
-  </si>
-  <si>
-    <t>"L2-L3_F"</t>
-  </si>
-  <si>
-    <r>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> All Phases to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CORD measurement</t>
-    </r>
-  </si>
-  <si>
-    <t>"L1"</t>
-  </si>
-  <si>
-    <t>"L2"</t>
-  </si>
-  <si>
-    <t>"L3"</t>
-  </si>
-  <si>
-    <t>"PE"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt Cord </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>All Phases to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> result. When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <t>"PASS"</t>
-  </si>
-  <si>
-    <t>"FAIL"</t>
-  </si>
-  <si>
-    <r>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Phases to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CORD measurement</t>
-    </r>
-  </si>
-  <si>
-    <t>"L1-PE"</t>
-  </si>
-  <si>
-    <t>"L2-PE"</t>
-  </si>
-  <si>
-    <t>"L3-PE"</t>
-  </si>
-  <si>
-    <t>"L1-N"</t>
-  </si>
-  <si>
-    <t>"L2-N"</t>
-  </si>
-  <si>
-    <t>"L3-N"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt Cord Riso </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Phases to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Phases to Phase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CORD measurement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt Cord Riso </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Phases to Phase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> result (up to 6 fault conditions). When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> All Phases to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MACH measurement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt MACH </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>All Phases to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> result. When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt MACH Riso </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Phases to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:INIT:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:START_CONT:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:START_ALL-PE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:START_ONE-PE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:START_PH_PH:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:STOP:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RPE_L_STARTED:::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RPE_H_STARTED:::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RPE_STOPPED:::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RISO_STARTED:::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RISO_STOPPED:::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:INIT:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:START_RPE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:STOP_RPE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:START_ALL-PE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:START_ONE-PE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:URES_OPEN:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:INITIATED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:CW_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:CONT_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:ALL-PE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:ONE-PE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:PH-PH_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RPE_L_START:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RPE_H_START:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RPE_STOP:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_START:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_RES_GET::(1):1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RPE_RES_GET::(1):1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_STOP:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:URES_OPENED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:URES_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:ONE-PE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:ALL-PE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:RPE_STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:RPE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:INITIATED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>1. Pass 2. CW failures</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:CW_RESULT:(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:CONT:(1),(2)|(3)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:03:STATUS:MAINS:PHASE_S|(1.),L_POS|(2.),MAINS|(3.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_ALL-PE_RESULT:(1)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:RISO_ALL-PE_RESULT:(1)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:RISO_ONE-PE_RESULT:(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_ONE-PE_RESULT:(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:RISO_PH-PH_RESULT:(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP::::::0:000:#013#010</t>
-  </si>
-  <si>
-    <t>CONNECTION</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:COMMUN:CONNECT_REQUEST:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>1. Device</t>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>"MT-310"</t>
-  </si>
-  <si>
-    <t>"PAT"</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:COMMUN:CONNECTION_ESTABLED:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>"MT-300-TFA"</t>
-  </si>
-  <si>
-    <t>Connect request. Returns if all ok with Device (MT-300-TFA) , also returns mains status</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:COMMUN:CONNECTION_DENIED:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>1. Connection denied</t>
-  </si>
-  <si>
-    <t>"ALREADY_CONNECTED"</t>
-  </si>
-  <si>
-    <t>"DIFF_DEVICE_CONNECTED"</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RPE_RES:RES|(1.)::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:RISO_RES:RES|(1.)::1:CRC:</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:START_C_W:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:INIT_FAILED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>init CORD not possible, initialisation failed</t>
-  </si>
-  <si>
-    <t>init CORD test (if all OK returns INITIATED), runs mains test and return its result</t>
-  </si>
-  <si>
-    <t>stop and reinit CORD meaurement</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:SET:CABLE_TYPE|(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>sets cable phase number (mandatory only if changed from INIT function)</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:SET_COMPLETED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>CORD deinitialized</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:CORD:DEINIT:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:CORD:DEINITIATED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:START_URES:(1.):(2.):1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>1. URES Phase voltage to measure, 2. Parameters only for simulation</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:INIT_FAILED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>init MACH not possible, initialisation failed</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:SET:CABLE_TYPE|(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>stop and reinit MACH meaurement</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:STOP:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:MACH:URES_FINISHED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:URES_STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>when URES measurement is finsihed in master device this string has to be returned</t>
-  </si>
-  <si>
-    <t>open input contactors at peak input voltage. Return when the contactors are opened (for info).</t>
-  </si>
-  <si>
-    <t>WELDING</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:INIT:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:START_RPE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:RPE_STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:START_ALL-PE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:ALL-PE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:RISO_ALL-PE_RESULT:(1)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:START_ONE-PE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:ONE-PE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:RISO_ONE-PE_RESULT:(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:SET:CABLE_TYPE|(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:STOP:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>stop and reinit WELD meaurement</t>
-  </si>
-  <si>
-    <t>init WELD test, runs mains test and return its result</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:INIT_FAILED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>init WELD not possible, initialisation failed</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:RPE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:STOP_RPE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:INITIATED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:MACH:SET_COMPLETED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:SET_COMPLETED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <r>
-      <t>start</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Phases to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MACH measurement.  If ALL-PE is not completed jet, it is started implicitly.</t>
-    </r>
-  </si>
-  <si>
-    <t>INTERMEDIATE COMMANDS (MT-300-TFA asks)</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:MAINS-WELD_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:MAINS-WELD_RESULT:(1),(2)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:MAINS-CLASS2_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:WELD-PE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:MAINS-CLASS2_RESULT:(1)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:WELD-PE_RESULT:(1)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>Cont/single</t>
-  </si>
-  <si>
-    <t>Connection denied</t>
-  </si>
-  <si>
-    <t>"CONT"</t>
-  </si>
-  <si>
-    <t>"SINGLE"</t>
-  </si>
-  <si>
-    <t>1. Cont/single</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:START_MAINS-WELD:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:START_MAINS-CLASS2:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:START_WELD-PE:(1.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:STOP_MAINS-CLASS2:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:MAINS-CLASS2_STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:STOP_WELD-PE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:WELD-PE_STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:STOP_MAINS-WELD:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:MAINS-WELD_STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:START_UNL_RMS:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:UNL_RMS_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">start </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U-NO-LOAD RMS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement. When everithing is set started is returned</t>
-    </r>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:STOP_UNL_RMS:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:UNL_RMS_STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">stop </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U-NO-LOAD RMS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">stop </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>welding to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt WELD </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>welding to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> result. When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">start </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>welding to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement. If measurement is set to continious started is returned when everithing is set and MT-300-TFA is not in command.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">stop </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MAINS to CLASS2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt WELD </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">MAINS to CLASS2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>result. When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">start </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MAINS to CLASS2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement. If measurement is set to continious started is returned when everithing is set and MT-300-TFA is not in command.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">stop </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MAINS to welding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt WELD </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MAINS to welding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> result. When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">start </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">MAINS to welding </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WELD measurement. If measurement is set to continious started is returned when everithing is set and MT-300-TFA is not in command.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt WELD </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Riso Phases to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> result (up to 4 fault conditions). When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">start </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Phases to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement. If ALL-PE is not completed jet, it is started implicitly.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Transmitt WELD </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">All Phases to PE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>result. When return message is recieved, measurement has finished.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">start </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>All Phases to PE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>stop</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> RPE 30A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">start </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RPE 30A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement, when return command is transmitted everithing is set</t>
-    </r>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:START_UNL_PEAK:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:UNL_PEAK_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:STOP_UNL_PEAK:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:UNL_PEAK_STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">start </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">U-NO-LOAD PEAK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WELD measurement. When everithing is set started is returned</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">stop </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>U-NO-LOAD PEAK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> WELD measurement.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">start dedicated </t>
+      <t>g for CORD measurement. Limit of this function is currently not used.</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;PA:ID:C_W:START:STD|CORD,CONN|(2.),LIMIT|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. %.3f Limit in Ohms, 2. 1W or 3W</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CONT:START:STD|CORD,CONN|(2.),LIMIT|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:ALL-PE:START:STD|CORD,CONN|(2.),LIMIT|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:ONE-PE:START:STD|CORD,CONN|(2.),LIMIT|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:PH-PH:START:STD|CORD,CONN|(2.),LIMIT|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. %.3f Limit in Mohms, 2. 1W or 3W</t>
+  </si>
+  <si>
+    <t>&gt;MP:01:GENERAL:EVENT:READY_ON::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;MP:01:GENERAL:WARNING:READY_ON::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CABLE_TYPE:SET:STD|CORD,CONN|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:C_W:RESULT:MAIN_RES|(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:CONT:RESULT:MAIN_RES|(1),(2)|(3)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:ONE-PE:RESULT:MAIN_RES|(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:PH_PH:RESULT:MAIN_RES|(1),(2)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>start RPE 30A MACH measurement</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:ALL-PE:START:STD|MACH,CONN|(2.),LIMIT|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:ONE-PE:START:STD|MACH,CONN|(2.),LIMIT|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. URES Phase voltage to measure, 2. Parameters only for simulation, 3. 1W or 3W</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:M_RPE:START:STD|MACH::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:M_RPE:STOP:STD|MACH::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:M_URES:OPEN:STD|MACH::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:M_URES:INIT:STD|MACH,PH_V|(1.):(2.):1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:M_URES:INITIATED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:M_URES:OPENED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">initiate dedicated </t>
     </r>
     <r>
       <rPr>
@@ -3435,164 +3007,195 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> measurement, when started is returned all is set</t>
-    </r>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:GET_VOLTAGE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:START_ANALYZE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:ANALYZE_STARTED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">start </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">MAINS ANALYZW </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WELD measurement</t>
-    </r>
-  </si>
-  <si>
-    <t>get measured voltage</t>
-  </si>
-  <si>
-    <t>1.-4. Voltage in %.2f</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:GET_CURRENT:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:VOLTAGE:ULN1|(1.),ULN2|(2.),ULN3|(3.),UNPE|(4.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>get measured current</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:CURRENT:IL1|(1.),IL2|(2.),IL3|(3.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:GET_THD_C:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:GET_THD_V:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:THD_V:T_ULN1|(1.),T_ULN2|(2.),T-ULN3|(3.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:THD_C:T_IL1|(1.),T_IL2|(2.),T_IL3|(3.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>get current THD, updated every 2s</t>
-  </si>
-  <si>
-    <t>get voltage THD, updated every 2s</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:GET_POWER_R:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>1.-4. Power in %.1f</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:GET_PF:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>get computed real power</t>
-  </si>
-  <si>
-    <t>get computed apparent power</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:GET_POWER_A:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>1.-4. Power factor in %.3f</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELDPF:PFL1|(1.),PFL2|(2.),PFL3|(3.),PF3P|(4.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:POWER_A:SL1|(1.),SL2|(2.),SL3|(3.),S3P|(4.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELDPOWER_R:PL1|(1.),PL2|(2.),PL3|(3.),P3P|(4.)::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>1.-3. THD of voltage in %.2f</t>
-  </si>
-  <si>
-    <t>1.-3. THD of current in %.2f</t>
-  </si>
-  <si>
-    <t>get computed power factor</t>
-  </si>
-  <si>
-    <t>&gt;PA:ID:WELD:STOP_ANALYZE:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <t>&gt;AP:ID:WELD:ANALYZE_STOPPED:::1:CRC:#013#010</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">stop </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">MAINS ANALYZW </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WELD measurement</t>
-    </r>
-  </si>
-  <si>
-    <t>1.-3. Current in %.3f</t>
+      <t xml:space="preserve"> measurement, when initiated is returned all is set</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;AP:ID:POWER:VOLTAGE:ULN1|(1.),ULN2|(2.),ULN3|(3.),UNPE|(4.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:POWER:CURRENT:IL1|(1.),IL2|(2.),IL3|(3.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:POWER:THD_C:T_IL1|(1.),T_IL2|(2.),T_IL3|(3.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:POWER:THD_V:T_ULN1|(1.),T_ULN2|(2.),T-ULN3|(3.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:POWER:POWER_R:PL1|(1.),PL2|(2.),PL3|(3.),P3P|(4.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:POWER:POWER_A:SL1|(1.),SL2|(2.),SL3|(3.),S3P|(4.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:POWER:PF:PFL1|(1.),PFL2|(2.),PFL3|(3.),PF3P|(4.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:POWER:START:STD|MACH::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:M_RPE:START:STD|CORD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:M_RPE:STOP:STD|CORD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:ALL-PE:START:STD|WELD,CONN|(2.),LIMIT|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:ONE-PE:START:STD|WELD,CONN|(2.),LIMIT|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:M_RPE:START:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:M_RPE:STOP:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>Start RISO measurement. When this message is transmitted everithing is set.</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MAINS-CLASS2:START:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MAINS-CLASS2:STOP:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD-PE:START:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:WELD-PE:STOP:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MAINS-WELD:START:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:MAINS-WELD:STOP:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>general stop event. Resets to init.</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:EVENT:STOPPED:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:EVENT:STOPPED:STD|CORD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:UNL_RMS:START:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:UNL_RMS:STOP:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:UNL_RMS:STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:UNL_PEAK:START:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:UNL_PEAK:STOP:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:UNL_PEAK:STARTED:::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:POWER:START:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:POWER:STOP:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;AP:ID:EVENT:STOPPED:STD|MACH::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1. any function</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:(1.):STOP:STD|MACH::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>stop and reinit MACH meaurement. Any function can be stopped with this command.</t>
+  </si>
+  <si>
+    <t>stop and reinit CORD meaurement. Any function can be stopped with this command.</t>
+  </si>
+  <si>
+    <t>stop and reinit WELD meaurement. Any function can be stopped with this command.</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:(1.):STOP:STD|WELD::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CABLE_TYPE:SET:STD|MACH,CONN|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>&gt;PA:ID:CABLE_TYPE:SET:STD|WELD,CONN|(1.)::1:CRC:#013#010</t>
+  </si>
+  <si>
+    <t>1 RPE</t>
+  </si>
+  <si>
+    <t>3 CORRECT WIRING</t>
+  </si>
+  <si>
+    <t>2 CONTINUITY</t>
+  </si>
+  <si>
+    <t>4 RISO L1/L2/L3/N AGAINST PE</t>
+  </si>
+  <si>
+    <t>5 RISO L1-PE, L2-PE, L3-PE AND N-PE</t>
+  </si>
+  <si>
+    <t>(6, 7, 8) RISO L1 AGAINST L2/L3/N …</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>7 RISO N/L1/L2/L3 AGAINST PE</t>
+  </si>
+  <si>
+    <t>7* RISO L1-PE, L2-PE, L3-PE AND N-PE</t>
+  </si>
+  <si>
+    <t>8 URES L1-PE, L2-PE,…</t>
+  </si>
+  <si>
+    <t>(11 - 18) POWER</t>
+  </si>
+  <si>
+    <t>(9 - 16) POWER</t>
+  </si>
+  <si>
+    <t>2 RISO MAINS AGAINST PE</t>
+  </si>
+  <si>
+    <t>2* RISO MAINS AGAINST PE</t>
+  </si>
+  <si>
+    <t>3 RISO MAINS AGAINST WELDING</t>
+  </si>
+  <si>
+    <t>5 RISO MAINS AGAINST ACCESIBLE PARTS</t>
+  </si>
+  <si>
+    <t>4 RISO WELDING AGAINST PE</t>
+  </si>
+  <si>
+    <t>6 U NO-LOAD RMS</t>
+  </si>
+  <si>
+    <t>6 U NO-LOAD PEAK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3729,6 +3332,14 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -3817,12 +3428,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3986,14 +3597,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4118,7 +3739,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyBorder="1"/>
@@ -4127,6 +3747,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4145,16 +3773,14 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Navadno 2" xfId="2"/>
+    <cellStyle name="Navadno 2 2" xfId="4"/>
     <cellStyle name="Navadno 3" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4833,21 +4459,21 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
@@ -4989,76 +4615,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>363</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>364</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="90" t="s">
         <v>365</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="90" t="s">
         <v>366</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="90" t="s">
         <v>406</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="90" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5128,58 +4754,58 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="90" t="s">
         <v>372</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="90" t="s">
         <v>375</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="90" t="s">
         <v>374</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="90" t="s">
         <v>373</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="90" t="s">
         <v>376</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5308,58 +4934,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>386</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="90" t="s">
         <v>387</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="90" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="90" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5441,40 +5067,40 @@
       <c r="E18" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="90" t="s">
         <v>392</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="90" t="s">
         <v>393</v>
       </c>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5574,58 +5200,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>394</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>395</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="90" t="s">
         <v>396</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="90" t="s">
         <v>397</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="90" t="s">
         <v>398</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5761,40 +5387,40 @@
       <c r="E29" s="33"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="85" t="s">
+      <c r="A33" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="90" t="s">
         <v>399</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="90" t="s">
         <v>400</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="90" t="s">
         <v>401</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6074,58 +5700,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>430</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="90" t="s">
         <v>431</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="90" t="s">
         <v>433</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="90" t="s">
         <v>432</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6207,49 +5833,49 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="90" t="s">
         <v>440</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="90" t="s">
         <v>443</v>
       </c>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="90" t="s">
         <v>442</v>
       </c>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6421,15 +6047,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO105"/>
+  <dimension ref="A1:AO151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.7109375" customWidth="1"/>
+    <col min="2" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="145.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="41" width="60.7109375" customWidth="1"/>
@@ -6455,14 +6082,14 @@
       <c r="G1" s="67" t="s">
         <v>448</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="95" t="s">
         <v>449</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="64"/>
       <c r="O1" s="64"/>
       <c r="P1" s="64"/>
@@ -6493,13 +6120,13 @@
       <c r="AO1" s="64"/>
     </row>
     <row r="2" spans="1:41" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="94" t="s">
         <v>450</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
       <c r="F2" s="64"/>
       <c r="G2" s="70"/>
       <c r="H2" s="70"/>
@@ -6538,13 +6165,11 @@
       <c r="AO2" s="64"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
-        <v>451</v>
-      </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="64"/>
       <c r="G3" s="70"/>
       <c r="H3" s="70"/>
@@ -6593,10 +6218,10 @@
         <v>452</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="64"/>
@@ -6632,28 +6257,20 @@
       <c r="AO4" s="64"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
-        <v>564</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>453</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>581</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64" t="s">
-        <v>631</v>
-      </c>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="64"/>
       <c r="G5" s="64" t="s">
         <v>454</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="J5" s="64"/>
       <c r="K5" s="64"/>
@@ -6690,14 +6307,10 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="71"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="73" t="s">
-        <v>629</v>
-      </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64" t="s">
-        <v>630</v>
-      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
       <c r="H6" s="64"/>
@@ -6736,17 +6349,11 @@
       <c r="AO6" s="64"/>
     </row>
     <row r="7" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="79" t="s">
-        <v>637</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78" t="s">
-        <v>638</v>
-      </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77" t="s">
-        <v>636</v>
-      </c>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
       <c r="F7" s="64"/>
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
@@ -6784,565 +6391,388 @@
       <c r="AN7" s="64"/>
       <c r="AO7" s="64"/>
     </row>
-    <row r="8" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
-        <v>628</v>
-      </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="73" t="s">
-        <v>582</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64" t="s">
-        <v>525</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>457</v>
-      </c>
-      <c r="J8" s="64" t="s">
-        <v>458</v>
-      </c>
-      <c r="K8" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="L8" s="64" t="s">
-        <v>460</v>
-      </c>
-      <c r="M8" s="64" t="s">
-        <v>461</v>
-      </c>
-      <c r="N8" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="O8" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="P8" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q8" s="64" t="s">
-        <v>465</v>
-      </c>
-      <c r="R8" s="64" t="s">
-        <v>466</v>
-      </c>
-      <c r="S8" s="64" t="s">
-        <v>467</v>
-      </c>
-      <c r="T8" s="64" t="s">
-        <v>468</v>
-      </c>
-      <c r="U8" s="64" t="s">
-        <v>469</v>
-      </c>
-      <c r="V8" s="64" t="s">
-        <v>470</v>
-      </c>
-      <c r="W8" s="64" t="s">
-        <v>471</v>
-      </c>
-      <c r="X8" s="64" t="s">
-        <v>472</v>
-      </c>
-      <c r="Y8" s="64" t="s">
-        <v>473</v>
-      </c>
-      <c r="Z8" s="64" t="s">
-        <v>474</v>
-      </c>
-      <c r="AA8" s="64" t="s">
-        <v>475</v>
-      </c>
-      <c r="AB8" s="64" t="s">
-        <v>476</v>
-      </c>
-      <c r="AC8" s="64" t="s">
-        <v>477</v>
-      </c>
-      <c r="AD8" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="AE8" s="64" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF8" s="64" t="s">
-        <v>480</v>
-      </c>
-      <c r="AG8" s="64" t="s">
-        <v>481</v>
-      </c>
-      <c r="AH8" s="64" t="s">
-        <v>482</v>
-      </c>
-      <c r="AI8" s="64" t="s">
-        <v>483</v>
-      </c>
-      <c r="AJ8" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="AK8" s="64" t="s">
-        <v>485</v>
-      </c>
-      <c r="AL8" s="64" t="s">
-        <v>486</v>
-      </c>
-      <c r="AM8" s="64" t="s">
-        <v>487</v>
-      </c>
-      <c r="AN8" s="64" t="s">
-        <v>488</v>
-      </c>
-      <c r="AO8" s="64" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78" t="s">
-        <v>603</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>602</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>526</v>
-      </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64" t="s">
-        <v>490</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>527</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>528</v>
-      </c>
-      <c r="J9" s="64" t="s">
-        <v>529</v>
-      </c>
-      <c r="K9" s="64" t="s">
-        <v>530</v>
-      </c>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-    </row>
-    <row r="10" spans="1:41" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" s="24" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="93" t="s">
+        <v>451</v>
+      </c>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+    </row>
+    <row r="9" spans="1:41" s="85" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="96" t="s">
+        <v>687</v>
+      </c>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+    </row>
+    <row r="10" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
-        <v>565</v>
-      </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="73" t="s">
-        <v>583</v>
-      </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64" t="s">
-        <v>531</v>
-      </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64" t="s">
-        <v>491</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>532</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>533</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>534</v>
-      </c>
-      <c r="K10" s="64" t="s">
-        <v>535</v>
-      </c>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="64"/>
-      <c r="AL10" s="64"/>
-      <c r="AM10" s="64"/>
-      <c r="AN10" s="64"/>
-      <c r="AO10" s="64"/>
-    </row>
-    <row r="11" spans="1:41" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="76"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="78" t="s">
-        <v>604</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>492</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>536</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64" t="s">
-        <v>493</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>537</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>538</v>
-      </c>
-      <c r="J11" s="64" t="s">
-        <v>539</v>
-      </c>
-      <c r="K11" s="64" t="s">
-        <v>540</v>
-      </c>
-      <c r="L11" s="64" t="s">
-        <v>541</v>
-      </c>
-      <c r="M11" s="64" t="s">
-        <v>542</v>
-      </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-    </row>
-    <row r="12" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
-        <v>566</v>
-      </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="73" t="s">
-        <v>584</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64" t="s">
-        <v>543</v>
+        <v>654</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86" t="s">
+        <v>635</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+    </row>
+    <row r="11" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="71"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87" t="s">
+        <v>611</v>
+      </c>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="78" t="s">
+        <v>655</v>
+      </c>
+      <c r="B12" s="76"/>
+      <c r="C12" s="89" t="s">
+        <v>669</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76" t="s">
+        <v>505</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="64" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>544</v>
+        <v>456</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>545</v>
+        <v>457</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>546</v>
+        <v>458</v>
       </c>
       <c r="K12" s="64" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="L12" s="64" t="s">
-        <v>547</v>
-      </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="64"/>
-      <c r="AL12" s="64"/>
-      <c r="AM12" s="64"/>
-      <c r="AN12" s="64"/>
-      <c r="AO12" s="64"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="73" t="s">
-        <v>607</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>548</v>
-      </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>549</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>550</v>
-      </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
-        <v>567</v>
-      </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="73" t="s">
-        <v>585</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="M12" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="N12" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="O12" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="P12" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q12" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="R12" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="S12" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="T12" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="U12" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="V12" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="W12" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="X12" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y12" s="64" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z12" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA12" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB12" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC12" s="64" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD12" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE12" s="64" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF12" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="AG12" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH12" s="64" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI12" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="AJ12" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="AK12" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="AL12" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="AM12" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="AN12" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="AO12" s="64" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" s="82" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="96" t="s">
+        <v>688</v>
+      </c>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="83"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="83"/>
+      <c r="X13" s="83"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="83"/>
+      <c r="AC13" s="83"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
+      <c r="AI13" s="83"/>
+      <c r="AJ13" s="83"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="83"/>
+      <c r="AM13" s="83"/>
+      <c r="AN13" s="83"/>
+      <c r="AO13" s="83"/>
+    </row>
+    <row r="14" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="84" t="s">
+        <v>621</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>622</v>
+      </c>
+      <c r="C14" s="73"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64" t="s">
-        <v>551</v>
-      </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>552</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>553</v>
-      </c>
-      <c r="J14" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="K14" s="64" t="s">
-        <v>555</v>
-      </c>
-      <c r="L14" s="64" t="s">
-        <v>556</v>
-      </c>
-      <c r="M14" s="64" t="s">
-        <v>557</v>
-      </c>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="73" t="s">
-        <v>610</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>498</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>558</v>
-      </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64" t="s">
-        <v>616</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>617</v>
-      </c>
-      <c r="I15" s="64" t="s">
         <v>620</v>
       </c>
-      <c r="J15" s="64" t="s">
-        <v>618</v>
-      </c>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="64"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="64"/>
-      <c r="AL15" s="64"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="64"/>
-      <c r="AO15" s="64"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
-        <v>568</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="73" t="s">
-        <v>586</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64" t="s">
-        <v>559</v>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="83"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="83"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="83"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="83"/>
+      <c r="AM14" s="83"/>
+      <c r="AN14" s="83"/>
+      <c r="AO14" s="83"/>
+    </row>
+    <row r="15" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="88"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="87" t="s">
+        <v>607</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>609</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>606</v>
+      </c>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="86"/>
+      <c r="V15" s="86"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="86"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="86"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="86"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="86"/>
+      <c r="AJ15" s="86"/>
+      <c r="AK15" s="86"/>
+      <c r="AL15" s="86"/>
+      <c r="AM15" s="86"/>
+      <c r="AN15" s="86"/>
+      <c r="AO15" s="86"/>
+    </row>
+    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="88"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="87" t="s">
+        <v>608</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>609</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>605</v>
       </c>
       <c r="F16" s="64"/>
-      <c r="G16" t="s">
-        <v>681</v>
+      <c r="G16" s="64" t="s">
+        <v>490</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>624</v>
+        <v>516</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>625</v>
-      </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
+        <v>517</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="K16" s="64" t="s">
+        <v>519</v>
+      </c>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
@@ -7374,30 +6804,30 @@
       <c r="AN16" s="64"/>
       <c r="AO16" s="64"/>
     </row>
-    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78" t="s">
-        <v>611</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>499</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>560</v>
-      </c>
+    <row r="17" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
+        <v>601</v>
+      </c>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="64"/>
       <c r="G17" s="64" t="s">
-        <v>680</v>
+        <v>491</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>683</v>
+        <v>521</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>682</v>
-      </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
+        <v>522</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="K17" s="64" t="s">
+        <v>524</v>
+      </c>
       <c r="L17" s="64"/>
       <c r="M17" s="64"/>
       <c r="N17" s="64"/>
@@ -7429,362 +6859,851 @@
       <c r="AN17" s="64"/>
       <c r="AO17" s="64"/>
     </row>
-    <row r="18" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
-        <v>633</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>453</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>635</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64" t="s">
-        <v>634</v>
-      </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="64"/>
-      <c r="AF18" s="64"/>
-      <c r="AG18" s="64"/>
-      <c r="AH18" s="64"/>
-      <c r="AI18" s="64"/>
-      <c r="AJ18" s="64"/>
-      <c r="AK18" s="64"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="64"/>
-      <c r="AO18" s="64"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
-        <v>569</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="73" t="s">
-        <v>601</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64" t="s">
-        <v>632</v>
-      </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="64"/>
-      <c r="AA19" s="64"/>
-      <c r="AB19" s="64"/>
-      <c r="AC19" s="64"/>
-      <c r="AD19" s="64"/>
-      <c r="AE19" s="64"/>
-      <c r="AF19" s="64"/>
-      <c r="AG19" s="64"/>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="64"/>
-      <c r="AK19" s="64"/>
-      <c r="AL19" s="64"/>
-      <c r="AM19" s="64"/>
-      <c r="AN19" s="64"/>
-      <c r="AO19" s="64"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
-        <v>673</v>
-      </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
+    <row r="18" spans="1:41" s="85" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77" t="s">
+        <v>631</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>549</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>515</v>
+      </c>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="86"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="86"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="86"/>
+      <c r="AO18" s="86"/>
+    </row>
+    <row r="19" spans="1:41" s="85" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="96" t="s">
+        <v>689</v>
+      </c>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="86"/>
+    </row>
+    <row r="20" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="66" t="s">
+        <v>623</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>622</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64" t="s">
+        <v>520</v>
+      </c>
       <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>570</v>
-      </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="74" t="s">
-        <v>587</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64" t="s">
-        <v>500</v>
-      </c>
+      <c r="G20" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>526</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>527</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="K20" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="L20" s="64" t="s">
+        <v>530</v>
+      </c>
+      <c r="M20" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="64"/>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="64"/>
+      <c r="AK20" s="64"/>
+      <c r="AL20" s="64"/>
+      <c r="AM20" s="64"/>
+      <c r="AN20" s="64"/>
+      <c r="AO20" s="64"/>
+    </row>
+    <row r="21" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
       <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
+      <c r="G21" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="H21" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="I21" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="K21" s="64" t="s">
+        <v>514</v>
+      </c>
+      <c r="L21" s="64" t="s">
+        <v>535</v>
+      </c>
       <c r="M21" s="64"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>571</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="74" t="s">
-        <v>588</v>
-      </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64" t="s">
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="64"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="64"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="64"/>
+      <c r="AK21" s="64"/>
+      <c r="AL21" s="64"/>
+      <c r="AM21" s="64"/>
+      <c r="AN21" s="64"/>
+      <c r="AO21" s="64"/>
+    </row>
+    <row r="22" spans="1:41" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="66"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="87" t="s">
+        <v>612</v>
+      </c>
+      <c r="D22" s="71" t="s">
         <v>501</v>
       </c>
+      <c r="E22" s="86"/>
       <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="G22" s="64" t="s">
+        <v>496</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>536</v>
+      </c>
+      <c r="I22" s="64" t="s">
+        <v>537</v>
+      </c>
       <c r="J22" s="64"/>
       <c r="K22" s="64"/>
       <c r="L22" s="64"/>
       <c r="M22" s="64"/>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
-        <v>626</v>
-      </c>
-      <c r="B23" s="64" t="s">
-        <v>502</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>592</v>
-      </c>
-      <c r="D23" s="71" t="s">
-        <v>503</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>504</v>
-      </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
-        <v>572</v>
-      </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="74" t="s">
-        <v>589</v>
-      </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="64" t="s">
-        <v>505</v>
-      </c>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="64"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="64"/>
+      <c r="AK22" s="64"/>
+      <c r="AL22" s="64"/>
+      <c r="AM22" s="64"/>
+      <c r="AN22" s="64"/>
+      <c r="AO22" s="64"/>
+    </row>
+    <row r="23" spans="1:41" s="85" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="75"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="77" t="s">
+        <v>632</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>492</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>525</v>
+      </c>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="86"/>
+      <c r="AL23" s="86"/>
+      <c r="AM23" s="86"/>
+      <c r="AN23" s="86"/>
+      <c r="AO23" s="86"/>
+    </row>
+    <row r="24" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="96" t="s">
+        <v>690</v>
+      </c>
+      <c r="B24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
       <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>573</v>
-      </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="74" t="s">
-        <v>590</v>
-      </c>
-      <c r="D25" s="71"/>
+      <c r="G24" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>539</v>
+      </c>
+      <c r="I24" s="64" t="s">
+        <v>540</v>
+      </c>
+      <c r="J24" s="64" t="s">
+        <v>541</v>
+      </c>
+      <c r="K24" s="64" t="s">
+        <v>542</v>
+      </c>
+      <c r="L24" s="64" t="s">
+        <v>543</v>
+      </c>
+      <c r="M24" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="64"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="64"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="64"/>
+      <c r="AN24" s="64"/>
+      <c r="AO24" s="64"/>
+    </row>
+    <row r="25" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="66" t="s">
+        <v>624</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>627</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="64" t="s">
-        <v>506</v>
-      </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+        <v>616</v>
+      </c>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86" t="s">
+        <v>496</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>536</v>
+      </c>
+      <c r="I25" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="86"/>
+      <c r="AJ25" s="86"/>
+      <c r="AK25" s="86"/>
+      <c r="AL25" s="86"/>
+      <c r="AM25" s="86"/>
+      <c r="AN25" s="86"/>
+      <c r="AO25" s="86"/>
+    </row>
+    <row r="26" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="D26" s="64"/>
+      <c r="E26" s="71" t="s">
+        <v>617</v>
+      </c>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="86"/>
+      <c r="AK26" s="86"/>
+      <c r="AL26" s="86"/>
+      <c r="AM26" s="86"/>
+      <c r="AN26" s="86"/>
+      <c r="AO26" s="86"/>
+    </row>
+    <row r="27" spans="1:41" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="65" t="s">
+        <v>604</v>
+      </c>
+      <c r="B27" s="86"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="86" t="s">
+        <v>495</v>
+      </c>
+      <c r="E27" s="71" t="s">
+        <v>618</v>
+      </c>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="86"/>
+      <c r="AK27" s="86"/>
+      <c r="AL27" s="86"/>
+      <c r="AM27" s="86"/>
+      <c r="AN27" s="86"/>
+      <c r="AO27" s="86"/>
+    </row>
+    <row r="28" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="96" t="s">
+        <v>691</v>
+      </c>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64" t="s">
+        <v>555</v>
+      </c>
+      <c r="H28" s="64" t="s">
+        <v>556</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>559</v>
+      </c>
+      <c r="J28" s="64" t="s">
+        <v>557</v>
+      </c>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
+        <v>625</v>
+      </c>
+      <c r="B29" s="86" t="s">
         <v>627</v>
       </c>
-      <c r="B26" s="64" t="s">
-        <v>507</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>591</v>
-      </c>
-      <c r="D26" s="71" t="s">
-        <v>503</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>508</v>
-      </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
-        <v>574</v>
-      </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="74" t="s">
-        <v>593</v>
-      </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64" t="s">
-        <v>509</v>
-      </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64" t="s">
-        <v>605</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>510</v>
-      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="64" t="s">
-        <v>511</v>
+        <v>538</v>
       </c>
       <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="G29" t="s">
+        <v>570</v>
+      </c>
+      <c r="H29" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>564</v>
+      </c>
       <c r="J29" s="64"/>
       <c r="K29" s="64"/>
       <c r="L29" s="64"/>
       <c r="M29" s="64"/>
-    </row>
-    <row r="31" spans="1:41" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="s">
-        <v>512</v>
-      </c>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
-        <v>451</v>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+    </row>
+    <row r="30" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="71"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="D30" s="86"/>
+      <c r="E30" s="71" t="s">
+        <v>613</v>
+      </c>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86" t="s">
+        <v>496</v>
+      </c>
+      <c r="H30" s="86" t="s">
+        <v>536</v>
+      </c>
+      <c r="I30" s="86" t="s">
+        <v>537</v>
+      </c>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="86"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="86"/>
+      <c r="AJ30" s="86"/>
+      <c r="AK30" s="86"/>
+      <c r="AL30" s="86"/>
+      <c r="AM30" s="86"/>
+      <c r="AN30" s="86"/>
+      <c r="AO30" s="86"/>
+    </row>
+    <row r="31" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="71"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87" t="s">
+        <v>612</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>501</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>614</v>
+      </c>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="86"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="86"/>
+      <c r="AD31" s="86"/>
+      <c r="AE31" s="86"/>
+      <c r="AF31" s="86"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="86"/>
+      <c r="AJ31" s="86"/>
+      <c r="AK31" s="86"/>
+      <c r="AL31" s="86"/>
+      <c r="AM31" s="86"/>
+      <c r="AN31" s="86"/>
+      <c r="AO31" s="86"/>
+    </row>
+    <row r="32" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65" t="s">
+        <v>604</v>
       </c>
       <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A34" s="66" t="s">
-        <v>575</v>
-      </c>
-      <c r="B34" s="64" t="s">
-        <v>453</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>600</v>
-      </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64" t="s">
-        <v>513</v>
-      </c>
+      <c r="C32" s="87"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71" t="s">
+        <v>615</v>
+      </c>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="86"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="86"/>
+      <c r="AF32" s="86"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="86"/>
+      <c r="AJ32" s="86"/>
+      <c r="AK32" s="86"/>
+      <c r="AL32" s="86"/>
+      <c r="AM32" s="86"/>
+      <c r="AN32" s="86"/>
+      <c r="AO32" s="86"/>
+    </row>
+    <row r="33" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="71"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="73" t="s">
+        <v>633</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>498</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>619</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64" t="s">
+        <v>569</v>
+      </c>
+      <c r="H33" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>571</v>
+      </c>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="64"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="64"/>
+      <c r="AK33" s="64"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="64"/>
+      <c r="AO33" s="64"/>
+    </row>
+    <row r="34" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="96" t="s">
+        <v>692</v>
+      </c>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
       <c r="F34" s="64"/>
       <c r="G34" s="64"/>
       <c r="H34" s="64"/>
@@ -7793,16 +7712,46 @@
       <c r="K34" s="64"/>
       <c r="L34" s="64"/>
       <c r="M34" s="64"/>
-    </row>
-    <row r="35" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78" t="s">
-        <v>641</v>
-      </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77" t="s">
-        <v>642</v>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="64"/>
+      <c r="AK34" s="64"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="64"/>
+      <c r="AO34" s="64"/>
+    </row>
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A35" s="66" t="s">
+        <v>626</v>
+      </c>
+      <c r="B35" s="86" t="s">
+        <v>627</v>
+      </c>
+      <c r="C35" s="73"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64" t="s">
+        <v>545</v>
       </c>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -7812,855 +7761,1426 @@
       <c r="K35" s="64"/>
       <c r="L35" s="64"/>
       <c r="M35" s="64"/>
-    </row>
-    <row r="36" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66" t="s">
-        <v>576</v>
-      </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="73" t="s">
-        <v>599</v>
-      </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64" t="s">
-        <v>514</v>
-      </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-    </row>
-    <row r="37" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="79" t="s">
-        <v>577</v>
-      </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78" t="s">
-        <v>598</v>
-      </c>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66" t="s">
-        <v>578</v>
-      </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="73" t="s">
-        <v>597</v>
-      </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="73" t="s">
-        <v>608</v>
-      </c>
-      <c r="D39" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="E39" s="64" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" s="66" t="s">
-        <v>579</v>
-      </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="73" t="s">
-        <v>596</v>
-      </c>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78" t="s">
-        <v>609</v>
-      </c>
-      <c r="D41" s="77" t="s">
-        <v>498</v>
-      </c>
-      <c r="E41" s="77" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="64"/>
+      <c r="AK35" s="64"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="64"/>
+      <c r="AO35" s="64"/>
+    </row>
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A36" s="71"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="D36" s="86"/>
+      <c r="E36" s="71" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A37" s="71"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="87" t="s">
+        <v>612</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>501</v>
+      </c>
+      <c r="E37" s="71" t="s">
+        <v>614</v>
+      </c>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+    </row>
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A38" s="65" t="s">
+        <v>604</v>
+      </c>
+      <c r="B38" s="86"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="75"/>
+      <c r="B39" s="76"/>
+      <c r="C39" s="77" t="s">
+        <v>634</v>
+      </c>
+      <c r="D39" s="76" t="s">
+        <v>499</v>
+      </c>
+      <c r="E39" s="76" t="s">
+        <v>546</v>
+      </c>
+      <c r="F39" s="64"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+    </row>
+    <row r="40" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="93" t="s">
+        <v>693</v>
+      </c>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A41" s="66" t="s">
+        <v>630</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" s="73"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64" t="s">
+        <v>565</v>
+      </c>
+      <c r="F41" s="71"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="66" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>640</v>
-      </c>
-      <c r="C42" s="73" t="s">
-        <v>595</v>
+        <v>602</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>669</v>
       </c>
       <c r="D42" s="64"/>
       <c r="E42" s="64" t="s">
-        <v>721</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A43" s="66" t="s">
-        <v>580</v>
-      </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="73" t="s">
-        <v>594</v>
-      </c>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="79" t="s">
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64" t="s">
+        <v>550</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>502</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>503</v>
+      </c>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+    </row>
+    <row r="45" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+    </row>
+    <row r="46" spans="1:41" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="94" t="s">
+        <v>504</v>
+      </c>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+    </row>
+    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A47" s="93" t="s">
+        <v>451</v>
+      </c>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+    </row>
+    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="71"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="75"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="75"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+    </row>
+    <row r="51" spans="1:5" s="85" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="96" t="s">
+        <v>687</v>
+      </c>
+      <c r="B51" s="96"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
+    </row>
+    <row r="52" spans="1:5" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="66" t="s">
+        <v>639</v>
+      </c>
+      <c r="B52" s="64"/>
+      <c r="C52" s="73"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="66"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="87" t="s">
+        <v>611</v>
+      </c>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="78" t="s">
+        <v>640</v>
+      </c>
+      <c r="B54" s="76"/>
+      <c r="C54" s="89" t="s">
+        <v>678</v>
+      </c>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="96" t="s">
+        <v>694</v>
+      </c>
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="66" t="s">
+        <v>636</v>
+      </c>
+      <c r="B56" s="86" t="s">
+        <v>627</v>
+      </c>
+      <c r="C56" s="73"/>
+      <c r="D56" s="86"/>
+      <c r="E56" s="64" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="71"/>
+      <c r="B57" s="86"/>
+      <c r="C57" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="D57" s="86"/>
+      <c r="E57" s="64"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="65" t="s">
+        <v>604</v>
+      </c>
+      <c r="B58" s="86"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="86" t="s">
+        <v>495</v>
+      </c>
+      <c r="E58" s="64"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="96" t="s">
+        <v>695</v>
+      </c>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="66" t="s">
+        <v>637</v>
+      </c>
+      <c r="B60" s="86" t="s">
+        <v>627</v>
+      </c>
+      <c r="C60" s="73"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="76" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="71"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="D61" s="86"/>
+      <c r="E61" s="86" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="71"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="87" t="s">
+        <v>612</v>
+      </c>
+      <c r="D62" s="71" t="s">
+        <v>501</v>
+      </c>
+      <c r="E62" s="81"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="65" t="s">
+        <v>604</v>
+      </c>
+      <c r="B63" s="86"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="81"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="71"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="73" t="s">
+        <v>633</v>
+      </c>
+      <c r="D64" s="86" t="s">
+        <v>498</v>
+      </c>
+      <c r="E64" s="76" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="96" t="s">
+        <v>696</v>
+      </c>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A66" s="66" t="s">
+        <v>642</v>
+      </c>
+      <c r="B66" s="64" t="s">
+        <v>638</v>
+      </c>
+      <c r="C66" s="73" t="s">
+        <v>643</v>
+      </c>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64" t="s">
+        <v>645</v>
+      </c>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
+      <c r="S66" s="64"/>
+      <c r="T66" s="64"/>
+      <c r="U66" s="64"/>
+      <c r="V66" s="64"/>
+      <c r="W66" s="64"/>
+      <c r="X66" s="64"/>
+      <c r="Y66" s="64"/>
+      <c r="Z66" s="64"/>
+      <c r="AA66" s="64"/>
+      <c r="AB66" s="64"/>
+      <c r="AC66" s="64"/>
+      <c r="AD66" s="64"/>
+      <c r="AE66" s="64"/>
+      <c r="AF66" s="64"/>
+      <c r="AG66" s="64"/>
+      <c r="AH66" s="64"/>
+      <c r="AI66" s="64"/>
+      <c r="AJ66" s="64"/>
+      <c r="AK66" s="64"/>
+      <c r="AL66" s="64"/>
+      <c r="AM66" s="64"/>
+      <c r="AN66" s="64"/>
+      <c r="AO66" s="64"/>
+    </row>
+    <row r="67" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="66" t="s">
+        <v>641</v>
+      </c>
+      <c r="B67" s="64"/>
+      <c r="C67" s="73" t="s">
+        <v>644</v>
+      </c>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="96" t="s">
+        <v>697</v>
+      </c>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A69" s="66" t="s">
+        <v>653</v>
+      </c>
+      <c r="B69" s="64"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A70" s="66"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="73" t="s">
         <v>646</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="78" t="s">
-        <v>647</v>
-      </c>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66" t="s">
-        <v>643</v>
-      </c>
-      <c r="B45" s="64" t="s">
-        <v>453</v>
-      </c>
-      <c r="C45" s="73" t="s">
-        <v>670</v>
-      </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64" t="s">
-        <v>634</v>
-      </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
-      <c r="R45" s="64"/>
-      <c r="S45" s="64"/>
-      <c r="T45" s="64"/>
-      <c r="U45" s="64"/>
-      <c r="V45" s="64"/>
-      <c r="W45" s="64"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="64"/>
-      <c r="Z45" s="64"/>
-      <c r="AA45" s="64"/>
-      <c r="AB45" s="64"/>
-      <c r="AC45" s="64"/>
-      <c r="AD45" s="64"/>
-      <c r="AE45" s="64"/>
-      <c r="AF45" s="64"/>
-      <c r="AG45" s="64"/>
-      <c r="AH45" s="64"/>
-      <c r="AI45" s="64"/>
-      <c r="AJ45" s="64"/>
-      <c r="AK45" s="64"/>
-      <c r="AL45" s="64"/>
-      <c r="AM45" s="64"/>
-      <c r="AN45" s="64"/>
-      <c r="AO45" s="64"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
-        <v>645</v>
-      </c>
-      <c r="C46" s="73" t="s">
-        <v>606</v>
-      </c>
-      <c r="E46" s="64" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C49" s="73" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C50" s="71"/>
-    </row>
-    <row r="51" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A51" s="87" t="s">
-        <v>650</v>
-      </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="86" t="s">
-        <v>451</v>
-      </c>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="66" t="s">
-        <v>651</v>
-      </c>
-      <c r="B54" s="64" t="s">
-        <v>453</v>
-      </c>
-      <c r="C54" s="73" t="s">
-        <v>669</v>
-      </c>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64" t="s">
-        <v>664</v>
-      </c>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="76"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="78" t="s">
-        <v>665</v>
-      </c>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77" t="s">
-        <v>666</v>
-      </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="64"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="66" t="s">
-        <v>652</v>
-      </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="73" t="s">
-        <v>667</v>
-      </c>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64" t="s">
-        <v>714</v>
-      </c>
-      <c r="F56" s="64"/>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="64"/>
-      <c r="M56" s="64"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="79" t="s">
-        <v>668</v>
-      </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="78" t="s">
-        <v>653</v>
-      </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66" t="s">
-        <v>654</v>
-      </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="73" t="s">
-        <v>655</v>
-      </c>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="73" t="s">
-        <v>656</v>
-      </c>
-      <c r="D59" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="E59" s="64" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="66" t="s">
-        <v>657</v>
-      </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="73" t="s">
-        <v>658</v>
-      </c>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="77"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="78" t="s">
-        <v>659</v>
-      </c>
-      <c r="D61" s="77" t="s">
-        <v>498</v>
-      </c>
-      <c r="E61" s="77" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="66" t="s">
-        <v>685</v>
-      </c>
-      <c r="B62" s="64" t="s">
-        <v>684</v>
-      </c>
-      <c r="C62" s="73" t="s">
-        <v>674</v>
-      </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="73" t="s">
-        <v>675</v>
-      </c>
-      <c r="D63" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="E63" s="64" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="79" t="s">
-        <v>692</v>
-      </c>
-      <c r="B64" s="77"/>
-      <c r="C64" s="78" t="s">
-        <v>693</v>
-      </c>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="66" t="s">
-        <v>686</v>
-      </c>
-      <c r="B65" s="64" t="s">
-        <v>684</v>
-      </c>
-      <c r="C65" s="73" t="s">
-        <v>676</v>
-      </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="73" t="s">
-        <v>678</v>
-      </c>
-      <c r="D66" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="E66" s="64" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="79" t="s">
-        <v>688</v>
-      </c>
-      <c r="B67" s="77"/>
-      <c r="C67" s="78" t="s">
-        <v>689</v>
-      </c>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="66" t="s">
-        <v>687</v>
-      </c>
-      <c r="B68" s="64" t="s">
-        <v>684</v>
-      </c>
-      <c r="C68" s="73" t="s">
-        <v>677</v>
-      </c>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="73" t="s">
-        <v>679</v>
-      </c>
-      <c r="D69" s="64" t="s">
-        <v>495</v>
-      </c>
-      <c r="E69" s="64" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="79" t="s">
-        <v>690</v>
-      </c>
-      <c r="B70" s="77"/>
-      <c r="C70" s="78" t="s">
-        <v>691</v>
-      </c>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66" t="s">
-        <v>694</v>
-      </c>
+      <c r="D70" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="E70" s="64" t="s">
+        <v>585</v>
+      </c>
+      <c r="F70" s="64"/>
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
+      <c r="J70" s="70"/>
+      <c r="K70" s="70"/>
+      <c r="L70" s="70"/>
+      <c r="M70" s="70"/>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A71" s="66"/>
       <c r="B71" s="64"/>
       <c r="C71" s="73" t="s">
-        <v>695</v>
-      </c>
-      <c r="D71" s="64"/>
+        <v>647</v>
+      </c>
+      <c r="D71" s="64" t="s">
+        <v>597</v>
+      </c>
       <c r="E71" s="64" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="79" t="s">
-        <v>697</v>
-      </c>
-      <c r="B72" s="77"/>
-      <c r="C72" s="78" t="s">
-        <v>698</v>
-      </c>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="66" t="s">
-        <v>715</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="F71" s="64"/>
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="J71" s="70"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="70"/>
+      <c r="M71" s="70"/>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A72" s="66"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="73" t="s">
+        <v>648</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="E72" s="64" t="s">
+        <v>588</v>
+      </c>
+      <c r="F72" s="71"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="70"/>
+      <c r="M72" s="70"/>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A73" s="66"/>
       <c r="B73" s="64"/>
       <c r="C73" s="73" t="s">
-        <v>716</v>
-      </c>
-      <c r="D73" s="64"/>
+        <v>649</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>594</v>
+      </c>
       <c r="E73" s="64" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="79" t="s">
-        <v>717</v>
-      </c>
-      <c r="B74" s="77"/>
-      <c r="C74" s="78" t="s">
-        <v>718</v>
-      </c>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="66" t="s">
-        <v>723</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="64"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="64"/>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A74" s="66"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="73" t="s">
+        <v>650</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E74" s="64" t="s">
+        <v>591</v>
+      </c>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+    </row>
+    <row r="75" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="66"/>
       <c r="B75" s="64"/>
       <c r="C75" s="73" t="s">
-        <v>724</v>
-      </c>
-      <c r="D75" s="64"/>
+        <v>651</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>590</v>
+      </c>
       <c r="E75" s="64" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="66" t="s">
-        <v>722</v>
-      </c>
-      <c r="B76" s="64"/>
-      <c r="C76" s="73" t="s">
-        <v>729</v>
-      </c>
-      <c r="D76" s="64" t="s">
-        <v>727</v>
-      </c>
-      <c r="E76" s="64" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="66" t="s">
-        <v>728</v>
-      </c>
-      <c r="B77" s="64"/>
-      <c r="C77" s="73" t="s">
-        <v>731</v>
-      </c>
-      <c r="D77" s="64" t="s">
-        <v>754</v>
-      </c>
-      <c r="E77" s="64" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="66" t="s">
-        <v>732</v>
-      </c>
-      <c r="B78" s="64"/>
-      <c r="C78" s="73" t="s">
-        <v>735</v>
-      </c>
-      <c r="D78" s="64" t="s">
-        <v>749</v>
-      </c>
-      <c r="E78" s="64" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="F75" s="86"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="86"/>
+      <c r="J75" s="86"/>
+      <c r="K75" s="86"/>
+      <c r="L75" s="86"/>
+      <c r="M75" s="86"/>
+    </row>
+    <row r="76" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="80"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="74" t="s">
+        <v>652</v>
+      </c>
+      <c r="D76" s="81" t="s">
+        <v>593</v>
+      </c>
+      <c r="E76" s="81" t="s">
+        <v>596</v>
+      </c>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="86"/>
+      <c r="J76" s="86"/>
+      <c r="K76" s="86"/>
+      <c r="L76" s="86"/>
+      <c r="M76" s="86"/>
+    </row>
+    <row r="77" spans="1:41" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="78" t="s">
+        <v>677</v>
+      </c>
+      <c r="B77" s="76"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="76"/>
+      <c r="E77" s="76" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" s="85" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="93" t="s">
+        <v>693</v>
+      </c>
+      <c r="B78" s="93"/>
+      <c r="C78" s="93"/>
+      <c r="D78" s="93"/>
+      <c r="E78" s="93"/>
+    </row>
+    <row r="79" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="66" t="s">
-        <v>733</v>
-      </c>
-      <c r="B79" s="64"/>
-      <c r="C79" s="73" t="s">
-        <v>734</v>
-      </c>
-      <c r="D79" s="64" t="s">
-        <v>748</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C79" s="73"/>
+      <c r="D79" s="64"/>
       <c r="E79" s="64" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="66" t="s">
-        <v>738</v>
-      </c>
-      <c r="B80" s="64"/>
-      <c r="C80" s="73" t="s">
-        <v>747</v>
-      </c>
-      <c r="D80" s="64" t="s">
-        <v>739</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="B80" s="86" t="s">
+        <v>679</v>
+      </c>
+      <c r="C80" s="89" t="s">
+        <v>678</v>
+      </c>
+      <c r="D80"/>
       <c r="E80" s="64" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A81" s="66" t="s">
-        <v>743</v>
-      </c>
-      <c r="B81" s="64"/>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81"/>
+      <c r="B81"/>
       <c r="C81" s="73" t="s">
-        <v>746</v>
-      </c>
-      <c r="D81" s="64" t="s">
-        <v>739</v>
-      </c>
-      <c r="E81" s="64" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A82" s="81" t="s">
-        <v>740</v>
-      </c>
-      <c r="B82" s="82"/>
-      <c r="C82" s="75" t="s">
-        <v>745</v>
-      </c>
-      <c r="D82" s="82" t="s">
-        <v>744</v>
-      </c>
-      <c r="E82" s="82" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="83" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="79" t="s">
-        <v>751</v>
-      </c>
-      <c r="B83" s="77"/>
-      <c r="C83" s="78" t="s">
-        <v>752</v>
-      </c>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="84" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="66" t="s">
+        <v>551</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81"/>
+    </row>
+    <row r="82" spans="1:5" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82" s="71"/>
+      <c r="D82"/>
+      <c r="E82"/>
+    </row>
+    <row r="83" spans="1:5" s="85" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="94" t="s">
+        <v>567</v>
+      </c>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="94"/>
+    </row>
+    <row r="84" spans="1:5" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="93" t="s">
+        <v>451</v>
+      </c>
+      <c r="B84" s="93"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="93"/>
+    </row>
+    <row r="85" spans="1:5" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="72"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="71"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="75"/>
+      <c r="B87" s="75"/>
+      <c r="C87" s="75"/>
+      <c r="D87" s="75"/>
+      <c r="E87" s="75"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="96" t="s">
+        <v>687</v>
+      </c>
+      <c r="B88" s="96"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="96"/>
+      <c r="E88" s="96"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="66" t="s">
+        <v>658</v>
+      </c>
+      <c r="B89" s="86"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="86" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="66"/>
+      <c r="B90" s="86"/>
+      <c r="C90" s="87" t="s">
+        <v>611</v>
+      </c>
+      <c r="D90" s="86"/>
+      <c r="E90" s="86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="78" t="s">
+        <v>659</v>
+      </c>
+      <c r="B91" s="76"/>
+      <c r="C91" s="89" t="s">
+        <v>668</v>
+      </c>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="96" t="s">
+        <v>699</v>
+      </c>
+      <c r="B92" s="96"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="96"/>
+      <c r="E92" s="96"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="66" t="s">
+        <v>656</v>
+      </c>
+      <c r="B93" s="86" t="s">
+        <v>627</v>
+      </c>
+      <c r="C93" s="73"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="86" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="71"/>
+      <c r="B94" s="86"/>
+      <c r="C94" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="D94" s="86"/>
+      <c r="E94" s="86"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="65" t="s">
+        <v>604</v>
+      </c>
+      <c r="B95" s="86"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="86" t="s">
+        <v>495</v>
+      </c>
+      <c r="E95" s="86"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="96" t="s">
+        <v>700</v>
+      </c>
+      <c r="B96" s="96"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="96"/>
+      <c r="E96" s="96"/>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A97" s="66" t="s">
+        <v>657</v>
+      </c>
+      <c r="B97" s="86" t="s">
+        <v>627</v>
+      </c>
+      <c r="C97" s="73"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="86" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A98" s="71"/>
+      <c r="B98" s="86"/>
+      <c r="C98" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="D98" s="86"/>
+      <c r="E98" s="86" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A99" s="71"/>
+      <c r="B99" s="86"/>
+      <c r="C99" s="87" t="s">
+        <v>612</v>
+      </c>
+      <c r="D99" s="71" t="s">
+        <v>501</v>
+      </c>
+      <c r="E99" s="81"/>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A100" s="65" t="s">
+        <v>604</v>
+      </c>
+      <c r="B100" s="86"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="81"/>
+    </row>
+    <row r="101" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="71"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="73" t="s">
+        <v>633</v>
+      </c>
+      <c r="D101" s="86" t="s">
+        <v>498</v>
+      </c>
+      <c r="E101" s="76" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="96" t="s">
+        <v>701</v>
+      </c>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A103" s="66" t="s">
+        <v>665</v>
+      </c>
+      <c r="B103" s="64"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A104" s="64"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="D104" s="64" t="s">
+        <v>495</v>
+      </c>
+      <c r="E104" s="64" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="78" t="s">
+        <v>666</v>
+      </c>
+      <c r="B105" s="76"/>
+      <c r="C105" s="89" t="s">
+        <v>668</v>
+      </c>
+      <c r="D105" s="76"/>
+      <c r="E105" s="76" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="96" t="s">
+        <v>702</v>
+      </c>
+      <c r="B106" s="96"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="96"/>
+      <c r="E106" s="96"/>
+    </row>
+    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A107" s="66" t="s">
+        <v>661</v>
+      </c>
+      <c r="B107" s="64"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A108" s="66"/>
+      <c r="B108" s="86"/>
+      <c r="C108" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="D108" s="86"/>
+      <c r="E108" s="86" t="s">
         <v>660</v>
       </c>
-      <c r="B84" s="64" t="s">
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="64"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="64"/>
+      <c r="L108" s="64"/>
+      <c r="M108" s="64"/>
+      <c r="N108" s="64"/>
+      <c r="O108" s="64"/>
+      <c r="P108" s="64"/>
+      <c r="Q108" s="64"/>
+      <c r="R108" s="64"/>
+      <c r="S108" s="64"/>
+      <c r="T108" s="64"/>
+      <c r="U108" s="64"/>
+      <c r="V108" s="64"/>
+      <c r="W108" s="64"/>
+      <c r="X108" s="64"/>
+      <c r="Y108" s="64"/>
+      <c r="Z108" s="64"/>
+      <c r="AA108" s="64"/>
+      <c r="AB108" s="64"/>
+      <c r="AC108" s="64"/>
+      <c r="AD108" s="64"/>
+      <c r="AE108" s="64"/>
+      <c r="AF108" s="64"/>
+      <c r="AG108" s="64"/>
+      <c r="AH108" s="64"/>
+      <c r="AI108" s="64"/>
+      <c r="AJ108" s="64"/>
+      <c r="AK108" s="64"/>
+      <c r="AL108" s="64"/>
+      <c r="AM108" s="64"/>
+      <c r="AN108" s="64"/>
+      <c r="AO108" s="64"/>
+    </row>
+    <row r="109" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="78" t="s">
+        <v>662</v>
+      </c>
+      <c r="B109" s="76"/>
+      <c r="C109" s="89" t="s">
+        <v>668</v>
+      </c>
+      <c r="D109" s="76"/>
+      <c r="E109" s="76" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="110" spans="1:41" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="96" t="s">
+        <v>703</v>
+      </c>
+      <c r="B110" s="96"/>
+      <c r="C110" s="96"/>
+      <c r="D110" s="96"/>
+      <c r="E110" s="96"/>
+    </row>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A111" s="66" t="s">
+        <v>663</v>
+      </c>
+      <c r="B111" s="64"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="64" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A112" s="64"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="87" t="s">
+        <v>610</v>
+      </c>
+      <c r="D112" s="64"/>
+      <c r="E112" s="86" t="s">
+        <v>660</v>
+      </c>
+      <c r="F112" s="64"/>
+      <c r="G112" s="70"/>
+      <c r="H112" s="70"/>
+      <c r="I112" s="70"/>
+      <c r="J112" s="70"/>
+      <c r="K112" s="70"/>
+      <c r="L112" s="70"/>
+      <c r="M112" s="70"/>
+    </row>
+    <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="78" t="s">
+        <v>664</v>
+      </c>
+      <c r="B113" s="76"/>
+      <c r="C113" s="89" t="s">
+        <v>668</v>
+      </c>
+      <c r="D113" s="76"/>
+      <c r="E113" s="76" t="s">
+        <v>667</v>
+      </c>
+      <c r="F113" s="64"/>
+      <c r="G113" s="70"/>
+      <c r="H113" s="70"/>
+      <c r="I113" s="70"/>
+      <c r="J113" s="70"/>
+      <c r="K113" s="70"/>
+      <c r="L113" s="70"/>
+      <c r="M113" s="70"/>
+    </row>
+    <row r="114" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="96" t="s">
+        <v>704</v>
+      </c>
+      <c r="B114" s="96"/>
+      <c r="C114" s="96"/>
+      <c r="D114" s="96"/>
+      <c r="E114" s="96"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="66" t="s">
+        <v>670</v>
+      </c>
+      <c r="B115" s="64"/>
+      <c r="C115" s="73" t="s">
+        <v>672</v>
+      </c>
+      <c r="D115" s="64"/>
+      <c r="E115" s="64" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="78" t="s">
+        <v>671</v>
+      </c>
+      <c r="B116" s="76"/>
+      <c r="C116" s="89" t="s">
+        <v>668</v>
+      </c>
+      <c r="D116" s="76"/>
+      <c r="E116" s="76" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="96" t="s">
+        <v>705</v>
+      </c>
+      <c r="B117" s="96"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="66" t="s">
+        <v>673</v>
+      </c>
+      <c r="B118" s="64"/>
+      <c r="C118" s="73" t="s">
+        <v>675</v>
+      </c>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="78" t="s">
+        <v>674</v>
+      </c>
+      <c r="B119" s="76"/>
+      <c r="C119" s="89" t="s">
+        <v>668</v>
+      </c>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="96" t="s">
+        <v>698</v>
+      </c>
+      <c r="B120" s="96"/>
+      <c r="C120" s="96"/>
+      <c r="D120" s="96"/>
+      <c r="E120" s="96"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="66" t="s">
+        <v>676</v>
+      </c>
+      <c r="B121" s="86"/>
+      <c r="C121" s="73"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="64" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A122" s="66"/>
+      <c r="B122" s="86"/>
+      <c r="C122" s="73" t="s">
+        <v>646</v>
+      </c>
+      <c r="D122" s="64" t="s">
+        <v>586</v>
+      </c>
+      <c r="E122" s="64" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A123" s="66"/>
+      <c r="B123" s="86"/>
+      <c r="C123" s="73" t="s">
+        <v>647</v>
+      </c>
+      <c r="D123" s="64" t="s">
+        <v>597</v>
+      </c>
+      <c r="E123" s="64" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A124" s="66"/>
+      <c r="B124" s="86"/>
+      <c r="C124" s="73" t="s">
+        <v>648</v>
+      </c>
+      <c r="D124" s="64" t="s">
+        <v>595</v>
+      </c>
+      <c r="E124" s="64" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A125" s="66"/>
+      <c r="B125" s="86"/>
+      <c r="C125" s="73" t="s">
+        <v>649</v>
+      </c>
+      <c r="D125" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="E125" s="64" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A126" s="66"/>
+      <c r="B126" s="86"/>
+      <c r="C126" s="73" t="s">
+        <v>650</v>
+      </c>
+      <c r="D126" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E126" s="64" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A127" s="66"/>
+      <c r="B127" s="86"/>
+      <c r="C127" s="73" t="s">
+        <v>651</v>
+      </c>
+      <c r="D127" s="64" t="s">
+        <v>590</v>
+      </c>
+      <c r="E127" s="64" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A128" s="80"/>
+      <c r="B128" s="81"/>
+      <c r="C128" s="74" t="s">
+        <v>652</v>
+      </c>
+      <c r="D128" s="81" t="s">
+        <v>593</v>
+      </c>
+      <c r="E128" s="81" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="78" t="s">
+        <v>677</v>
+      </c>
+      <c r="B129" s="76"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="93" t="s">
+        <v>693</v>
+      </c>
+      <c r="B130" s="93"/>
+      <c r="C130" s="93"/>
+      <c r="D130" s="93"/>
+      <c r="E130" s="93"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="66" t="s">
+        <v>686</v>
+      </c>
+      <c r="B131" s="64" t="s">
         <v>453</v>
       </c>
-      <c r="C84" s="73" t="s">
-        <v>671</v>
-      </c>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64" t="s">
-        <v>634</v>
-      </c>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="64"/>
-      <c r="K84" s="64"/>
-      <c r="L84" s="64"/>
-      <c r="M84" s="64"/>
-      <c r="N84" s="64"/>
-      <c r="O84" s="64"/>
-      <c r="P84" s="64"/>
-      <c r="Q84" s="64"/>
-      <c r="R84" s="64"/>
-      <c r="S84" s="64"/>
-      <c r="T84" s="64"/>
-      <c r="U84" s="64"/>
-      <c r="V84" s="64"/>
-      <c r="W84" s="64"/>
-      <c r="X84" s="64"/>
-      <c r="Y84" s="64"/>
-      <c r="Z84" s="64"/>
-      <c r="AA84" s="64"/>
-      <c r="AB84" s="64"/>
-      <c r="AC84" s="64"/>
-      <c r="AD84" s="64"/>
-      <c r="AE84" s="64"/>
-      <c r="AF84" s="64"/>
-      <c r="AG84" s="64"/>
-      <c r="AH84" s="64"/>
-      <c r="AI84" s="64"/>
-      <c r="AJ84" s="64"/>
-      <c r="AK84" s="64"/>
-      <c r="AL84" s="64"/>
-      <c r="AM84" s="64"/>
-      <c r="AN84" s="64"/>
-      <c r="AO84" s="64"/>
-    </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A85" s="66" t="s">
-        <v>661</v>
-      </c>
-      <c r="C85" s="73" t="s">
-        <v>662</v>
-      </c>
-      <c r="E85" s="64" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="C88" s="73" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="89" spans="1:41" ht="21" x14ac:dyDescent="0.25">
-      <c r="A89" s="87" t="s">
-        <v>613</v>
-      </c>
-      <c r="B89" s="87"/>
-      <c r="C89" s="87"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="70"/>
-      <c r="H89" s="70"/>
-      <c r="I89" s="70"/>
-      <c r="J89" s="70"/>
-      <c r="K89" s="70"/>
-      <c r="L89" s="70"/>
-      <c r="M89" s="70"/>
-    </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A90" s="86" t="s">
+      <c r="C131" s="73"/>
+      <c r="D131" s="64"/>
+      <c r="E131" s="64" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="66" t="s">
+        <v>684</v>
+      </c>
+      <c r="C132" s="89" t="s">
+        <v>668</v>
+      </c>
+      <c r="E132" s="64" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C134" s="73" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A135" s="94" t="s">
+        <v>552</v>
+      </c>
+      <c r="B135" s="94"/>
+      <c r="C135" s="94"/>
+      <c r="D135" s="94"/>
+      <c r="E135" s="94"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="93" t="s">
         <v>451</v>
       </c>
-      <c r="B90" s="86"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="86"/>
-      <c r="E90" s="86"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="70"/>
-      <c r="H90" s="70"/>
-      <c r="I90" s="70"/>
-      <c r="J90" s="70"/>
-      <c r="K90" s="70"/>
-      <c r="L90" s="70"/>
-      <c r="M90" s="70"/>
-    </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A91" s="66" t="s">
-        <v>614</v>
-      </c>
-      <c r="B91" t="s">
-        <v>615</v>
-      </c>
-      <c r="C91" s="73" t="s">
-        <v>619</v>
-      </c>
-      <c r="D91" t="s">
-        <v>615</v>
-      </c>
-      <c r="E91" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="C92" s="73" t="s">
-        <v>622</v>
-      </c>
-      <c r="D92" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="69" t="s">
+      <c r="B136" s="93"/>
+      <c r="C136" s="93"/>
+      <c r="D136" s="93"/>
+      <c r="E136" s="93"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="66" t="s">
+        <v>553</v>
+      </c>
+      <c r="B137" t="s">
+        <v>554</v>
+      </c>
+      <c r="C137" s="73" t="s">
+        <v>558</v>
+      </c>
+      <c r="D137" t="s">
+        <v>554</v>
+      </c>
+      <c r="E137" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C138" s="73" t="s">
+        <v>561</v>
+      </c>
+      <c r="D138" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C142" s="69" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C143" s="69" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="69" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="69" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="69" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="69" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="69" t="s">
-        <v>520</v>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="69" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="69" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="69" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="69" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="69" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="A32:E32"/>
+  <mergeCells count="33">
+    <mergeCell ref="A120:E120"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A96:E96"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A47:E47"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9626,22 +10146,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
       <c r="H3" s="42"/>
@@ -9651,13 +10171,13 @@
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="42"/>
       <c r="G4" s="42"/>
       <c r="H4" s="42"/>
@@ -9667,13 +10187,13 @@
       <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="90" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
       <c r="H5" s="42"/>
@@ -9683,13 +10203,13 @@
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="90" t="s">
         <v>348</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
@@ -9699,13 +10219,13 @@
       <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="90" t="s">
         <v>347</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42"/>
@@ -10079,58 +10599,58 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="90" t="s">
         <v>343</v>
       </c>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="90" t="s">
         <v>344</v>
       </c>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="90" t="s">
         <v>345</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="90" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10337,58 +10857,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>335</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="90" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="90" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="90" t="s">
         <v>338</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -10528,58 +11048,58 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="90" t="s">
         <v>339</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="90" t="s">
         <v>340</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="90" t="s">
         <v>341</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="90" t="s">
         <v>342</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10728,58 +11248,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="90" t="s">
         <v>332</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="90" t="s">
         <v>333</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="90" t="s">
         <v>334</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -10984,58 +11504,58 @@
       <c r="K21" s="33"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="90" t="s">
         <v>327</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="90" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="90" t="s">
         <v>329</v>
       </c>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="90" t="s">
         <v>330</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11170,58 +11690,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>370</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="90" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="90" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="90" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -11618,58 +12138,58 @@
       <c r="G55" s="33"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="85" t="s">
+      <c r="A58" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="90" t="s">
         <v>306</v>
       </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="83" t="s">
+      <c r="A63" s="90" t="s">
         <v>325</v>
       </c>
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="90" t="s">
         <v>326</v>
       </c>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11784,58 +12304,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>368</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="90" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="90" t="s">
         <v>369</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="90" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12037,58 +12557,58 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="90" t="s">
         <v>316</v>
       </c>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="90" t="s">
         <v>317</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="90" t="s">
         <v>318</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="90" t="s">
         <v>320</v>
       </c>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
